--- a/datamining/final_data/sorted1994_nltk.xlsx
+++ b/datamining/final_data/sorted1994_nltk.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AKZ2"/>
+  <dimension ref="A1:AIZ2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,14 +447,14 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>review</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>students</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>review</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
           <t>teachers</t>
@@ -487,432 +487,432 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>the</t>
+          <t>talent</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>talent</t>
+          <t>projects</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>quarterly</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>projects</t>
+          <t>education</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>of</t>
+          <t>creativity</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>education</t>
+          <t>project</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>and</t>
+          <t>school</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>creativity</t>
+          <t>gifted-child</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>project</t>
+          <t>children</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>to</t>
+          <t>talented</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>school</t>
+          <t>editor</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>children</t>
+          <t>identification</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>gifted-child</t>
+          <t>speech</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>in</t>
+          <t>research</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>identification</t>
+          <t>view</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>speech</t>
+          <t>giftedness</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>talented</t>
+          <t>frontispiece</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>quarterly</t>
+          <t>think</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>for</t>
+          <t>smith</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>research</t>
+          <t>feldhusen</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>frontispiece</t>
+          <t>curriculum</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>view</t>
+          <t>enrichment</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>curriculum</t>
+          <t>study</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>feldhusen</t>
+          <t>retrospective</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>giftedness</t>
+          <t>goes</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>enrichment</t>
+          <t>go</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>it</t>
+          <t>identifying</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>piirto</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>model</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>retrospective</t>
+          <t>middle</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>editor</t>
+          <t>create</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>study</t>
+          <t>developing</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>identifying</t>
+          <t>understanding</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>minority</t>
         </is>
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
-          <t>model</t>
+          <t>reviewers</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
         <is>
-          <t>think</t>
+          <t>introduction</t>
         </is>
       </c>
       <c r="AV1" s="1" t="inlineStr">
         <is>
-          <t>smith</t>
+          <t>descriptions</t>
         </is>
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
-          <t>from</t>
+          <t>writing</t>
         </is>
       </c>
       <c r="AX1" s="1" t="inlineStr">
         <is>
-          <t>middle</t>
+          <t>student</t>
         </is>
       </c>
       <c r="AY1" s="1" t="inlineStr">
         <is>
-          <t>minority</t>
+          <t>peer</t>
         </is>
       </c>
       <c r="AZ1" s="1" t="inlineStr">
         <is>
-          <t>developing</t>
+          <t>jf</t>
         </is>
       </c>
       <c r="BA1" s="1" t="inlineStr">
         <is>
-          <t>descriptions</t>
+          <t>tide</t>
         </is>
       </c>
       <c r="BB1" s="1" t="inlineStr">
         <is>
-          <t>introduction</t>
+          <t>art</t>
         </is>
       </c>
       <c r="BC1" s="1" t="inlineStr">
         <is>
-          <t>reviewers</t>
+          <t>staff</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
         <is>
-          <t>student</t>
+          <t>sem</t>
         </is>
       </c>
       <c r="BE1" s="1" t="inlineStr">
         <is>
-          <t>tide</t>
+          <t>programs</t>
         </is>
       </c>
       <c r="BF1" s="1" t="inlineStr">
         <is>
-          <t>this</t>
+          <t>teaching</t>
         </is>
       </c>
       <c r="BG1" s="1" t="inlineStr">
         <is>
-          <t>staff</t>
+          <t>performance</t>
         </is>
       </c>
       <c r="BH1" s="1" t="inlineStr">
         <is>
-          <t>jf</t>
+          <t>teacher</t>
         </is>
       </c>
       <c r="BI1" s="1" t="inlineStr">
         <is>
-          <t>peer</t>
+          <t>training</t>
         </is>
       </c>
       <c r="BJ1" s="1" t="inlineStr">
         <is>
-          <t>teaching</t>
+          <t>assessment</t>
         </is>
       </c>
       <c r="BK1" s="1" t="inlineStr">
         <is>
-          <t>writing</t>
+          <t>preservice</t>
         </is>
       </c>
       <c r="BL1" s="1" t="inlineStr">
         <is>
-          <t>sem</t>
+          <t>views</t>
         </is>
       </c>
       <c r="BM1" s="1" t="inlineStr">
         <is>
-          <t>programs</t>
+          <t>bradbury</t>
         </is>
       </c>
       <c r="BN1" s="1" t="inlineStr">
         <is>
-          <t>art</t>
+          <t>essays</t>
         </is>
       </c>
       <c r="BO1" s="1" t="inlineStr">
         <is>
-          <t>training</t>
+          <t>design</t>
         </is>
       </c>
       <c r="BP1" s="1" t="inlineStr">
         <is>
-          <t>performance</t>
+          <t>zen</t>
         </is>
       </c>
       <c r="BQ1" s="1" t="inlineStr">
         <is>
-          <t>assessment</t>
+          <t>ability</t>
         </is>
       </c>
       <c r="BR1" s="1" t="inlineStr">
         <is>
-          <t>teacher</t>
+          <t>origins</t>
         </is>
       </c>
       <c r="BS1" s="1" t="inlineStr">
         <is>
-          <t>preservice</t>
+          <t>disadvantaged</t>
         </is>
       </c>
       <c r="BT1" s="1" t="inlineStr">
         <is>
-          <t>design</t>
+          <t>perceived</t>
         </is>
       </c>
       <c r="BU1" s="1" t="inlineStr">
         <is>
-          <t>on</t>
+          <t>ackrill</t>
         </is>
       </c>
       <c r="BV1" s="1" t="inlineStr">
         <is>
-          <t>perceived</t>
+          <t>bock</t>
         </is>
       </c>
       <c r="BW1" s="1" t="inlineStr">
         <is>
-          <t>disadvantaged</t>
+          <t>gr</t>
         </is>
       </c>
       <c r="BX1" s="1" t="inlineStr">
         <is>
-          <t>views</t>
+          <t>adolescents</t>
         </is>
       </c>
       <c r="BY1" s="1" t="inlineStr">
         <is>
-          <t>understanding</t>
+          <t>trained</t>
         </is>
       </c>
       <c r="BZ1" s="1" t="inlineStr">
         <is>
-          <t>adolescents</t>
+          <t>potential</t>
         </is>
       </c>
       <c r="CA1" s="1" t="inlineStr">
         <is>
+          <t>'s</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>emotions</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
           <t>used</t>
         </is>
       </c>
-      <c r="CB1" s="1" t="inlineStr">
-        <is>
-          <t>trained</t>
-        </is>
-      </c>
-      <c r="CC1" s="1" t="inlineStr">
-        <is>
-          <t>'s</t>
-        </is>
-      </c>
       <c r="CD1" s="1" t="inlineStr">
         <is>
-          <t>piirto</t>
+          <t>high</t>
         </is>
       </c>
       <c r="CE1" s="1" t="inlineStr">
         <is>
-          <t>those</t>
+          <t>use</t>
         </is>
       </c>
       <c r="CF1" s="1" t="inlineStr">
         <is>
-          <t>who</t>
+          <t>real</t>
         </is>
       </c>
       <c r="CG1" s="1" t="inlineStr">
         <is>
-          <t>emotions</t>
+          <t>address</t>
         </is>
       </c>
       <c r="CH1" s="1" t="inlineStr">
         <is>
-          <t>create</t>
+          <t>bromfield</t>
         </is>
       </c>
       <c r="CI1" s="1" t="inlineStr">
         <is>
-          <t>ability</t>
+          <t>sk</t>
         </is>
       </c>
       <c r="CJ1" s="1" t="inlineStr">
         <is>
-          <t>use</t>
+          <t>playing</t>
         </is>
       </c>
       <c r="CK1" s="1" t="inlineStr">
         <is>
-          <t>potential</t>
+          <t>raising</t>
         </is>
       </c>
       <c r="CL1" s="1" t="inlineStr">
         <is>
-          <t>raising</t>
+          <t>therapist</t>
         </is>
       </c>
       <c r="CM1" s="1" t="inlineStr">
         <is>
+          <t>economically</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>child</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>joys</t>
+        </is>
+      </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>golant</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>challenges</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
           <t>journals</t>
         </is>
       </c>
-      <c r="CN1" s="1" t="inlineStr">
-        <is>
-          <t>joys</t>
-        </is>
-      </c>
-      <c r="CO1" s="1" t="inlineStr">
-        <is>
-          <t>golant</t>
-        </is>
-      </c>
-      <c r="CP1" s="1" t="inlineStr">
-        <is>
-          <t>challenges</t>
-        </is>
-      </c>
-      <c r="CQ1" s="1" t="inlineStr">
-        <is>
-          <t>sk</t>
-        </is>
-      </c>
-      <c r="CR1" s="1" t="inlineStr">
-        <is>
-          <t>economically</t>
-        </is>
-      </c>
       <c r="CS1" s="1" t="inlineStr">
         <is>
-          <t>essays</t>
+          <t>world</t>
         </is>
       </c>
       <c r="CT1" s="1" t="inlineStr">
@@ -922,7 +922,7 @@
       </c>
       <c r="CU1" s="1" t="inlineStr">
         <is>
-          <t>origins</t>
+          <t>reaching</t>
         </is>
       </c>
       <c r="CV1" s="1" t="inlineStr">
@@ -932,4442 +932,4182 @@
       </c>
       <c r="CW1" s="1" t="inlineStr">
         <is>
-          <t>k</t>
+          <t>supplee</t>
         </is>
       </c>
       <c r="CX1" s="1" t="inlineStr">
         <is>
-          <t>ackrill</t>
+          <t>underachiever</t>
         </is>
       </c>
       <c r="CY1" s="1" t="inlineStr">
         <is>
-          <t>bock</t>
+          <t>set</t>
         </is>
       </c>
       <c r="CZ1" s="1" t="inlineStr">
         <is>
-          <t>bradbury</t>
+          <t>article</t>
         </is>
       </c>
       <c r="DA1" s="1" t="inlineStr">
         <is>
-          <t>gr</t>
+          <t>ronning</t>
         </is>
       </c>
       <c r="DB1" s="1" t="inlineStr">
         <is>
-          <t>reaching</t>
+          <t>rr</t>
         </is>
       </c>
       <c r="DC1" s="1" t="inlineStr">
         <is>
-          <t>underachiever</t>
+          <t>much</t>
         </is>
       </c>
       <c r="DD1" s="1" t="inlineStr">
         <is>
-          <t>supplee</t>
+          <t>glover</t>
         </is>
       </c>
       <c r="DE1" s="1" t="inlineStr">
         <is>
-          <t>zen</t>
+          <t>handbook</t>
         </is>
       </c>
       <c r="DF1" s="1" t="inlineStr">
         <is>
-          <t>article</t>
+          <t>reynolds</t>
         </is>
       </c>
       <c r="DG1" s="1" t="inlineStr">
         <is>
-          <t>set</t>
+          <t>ja</t>
         </is>
       </c>
       <c r="DH1" s="1" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>social</t>
         </is>
       </c>
       <c r="DI1" s="1" t="inlineStr">
         <is>
-          <t>real</t>
+          <t>keynote</t>
         </is>
       </c>
       <c r="DJ1" s="1" t="inlineStr">
         <is>
-          <t>social</t>
+          <t>gifted-children</t>
         </is>
       </c>
       <c r="DK1" s="1" t="inlineStr">
         <is>
-          <t>bromfield</t>
+          <t>asking</t>
         </is>
       </c>
       <c r="DL1" s="1" t="inlineStr">
         <is>
-          <t>child</t>
+          <t>results</t>
         </is>
       </c>
       <c r="DM1" s="1" t="inlineStr">
         <is>
-          <t>playing</t>
+          <t>november</t>
         </is>
       </c>
       <c r="DN1" s="1" t="inlineStr">
         <is>
-          <t>therapist</t>
+          <t>1993</t>
         </is>
       </c>
       <c r="DO1" s="1" t="inlineStr">
         <is>
-          <t>world</t>
+          <t>national-association-for-gifted-children</t>
         </is>
       </c>
       <c r="DP1" s="1" t="inlineStr">
         <is>
-          <t>results</t>
+          <t>nonminority</t>
         </is>
       </c>
       <c r="DQ1" s="1" t="inlineStr">
         <is>
-          <t>handbook</t>
+          <t>potentially</t>
         </is>
       </c>
       <c r="DR1" s="1" t="inlineStr">
         <is>
-          <t>glover</t>
+          <t>greater</t>
         </is>
       </c>
       <c r="DS1" s="1" t="inlineStr">
         <is>
-          <t>rr</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="DT1" s="1" t="inlineStr">
         <is>
-          <t>ronning</t>
+          <t>designed</t>
         </is>
       </c>
       <c r="DU1" s="1" t="inlineStr">
         <is>
-          <t>nonminority</t>
+          <t>levels</t>
         </is>
       </c>
       <c r="DV1" s="1" t="inlineStr">
         <is>
-          <t>reynolds</t>
+          <t>effects</t>
         </is>
       </c>
       <c r="DW1" s="1" t="inlineStr">
         <is>
-          <t>greater</t>
+          <t>cornell</t>
         </is>
       </c>
       <c r="DX1" s="1" t="inlineStr">
         <is>
-          <t>ja</t>
+          <t>assessments</t>
         </is>
       </c>
       <c r="DY1" s="1" t="inlineStr">
         <is>
-          <t>approach</t>
+          <t>competence</t>
         </is>
       </c>
       <c r="DZ1" s="1" t="inlineStr">
         <is>
-          <t>when</t>
+          <t>effectiveness</t>
         </is>
       </c>
       <c r="EA1" s="1" t="inlineStr">
         <is>
-          <t>go</t>
+          <t>practices</t>
         </is>
       </c>
       <c r="EB1" s="1" t="inlineStr">
         <is>
-          <t>goes</t>
+          <t>equity</t>
         </is>
       </c>
       <c r="EC1" s="1" t="inlineStr">
         <is>
-          <t>effects</t>
+          <t>recommended</t>
         </is>
       </c>
       <c r="ED1" s="1" t="inlineStr">
         <is>
-          <t>they</t>
+          <t>apogee</t>
         </is>
       </c>
       <c r="EE1" s="1" t="inlineStr">
         <is>
-          <t>assessments</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="EF1" s="1" t="inlineStr">
         <is>
-          <t>where</t>
+          <t>private</t>
         </is>
       </c>
       <c r="EG1" s="1" t="inlineStr">
         <is>
-          <t>does</t>
+          <t>arts</t>
         </is>
       </c>
       <c r="EH1" s="1" t="inlineStr">
         <is>
-          <t>potentially</t>
+          <t>educational</t>
         </is>
       </c>
       <c r="EI1" s="1" t="inlineStr">
         <is>
-          <t>designed</t>
+          <t>alex</t>
         </is>
       </c>
       <c r="EJ1" s="1" t="inlineStr">
         <is>
-          <t>apogee</t>
+          <t>learners</t>
         </is>
       </c>
       <c r="EK1" s="1" t="inlineStr">
         <is>
-          <t>levels</t>
+          <t>gardner</t>
         </is>
       </c>
       <c r="EL1" s="1" t="inlineStr">
         <is>
-          <t>recommended</t>
+          <t>motivation</t>
         </is>
       </c>
       <c r="EM1" s="1" t="inlineStr">
         <is>
-          <t>practices</t>
+          <t>intrinsic</t>
         </is>
       </c>
       <c r="EN1" s="1" t="inlineStr">
         <is>
-          <t>equity</t>
+          <t>opportunities</t>
         </is>
       </c>
       <c r="EO1" s="1" t="inlineStr">
         <is>
-          <t>cornell</t>
+          <t>regular</t>
         </is>
       </c>
       <c r="EP1" s="1" t="inlineStr">
         <is>
-          <t>private</t>
+          <t>experience</t>
         </is>
       </c>
       <c r="EQ1" s="1" t="inlineStr">
         <is>
-          <t>effectiveness</t>
+          <t>role</t>
         </is>
       </c>
       <c r="ER1" s="1" t="inlineStr">
         <is>
-          <t>educational</t>
+          <t>district</t>
         </is>
       </c>
       <c r="ES1" s="1" t="inlineStr">
         <is>
-          <t>arts</t>
+          <t>findings</t>
         </is>
       </c>
       <c r="ET1" s="1" t="inlineStr">
         <is>
-          <t>learners</t>
+          <t>oriented</t>
         </is>
       </c>
       <c r="EU1" s="1" t="inlineStr">
         <is>
-          <t>alex</t>
+          <t>issues</t>
         </is>
       </c>
       <c r="EV1" s="1" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>districts</t>
         </is>
       </c>
       <c r="EW1" s="1" t="inlineStr">
         <is>
-          <t>critical</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="EX1" s="1" t="inlineStr">
         <is>
-          <t>are</t>
+          <t>shore</t>
         </is>
       </c>
       <c r="EY1" s="1" t="inlineStr">
         <is>
-          <t>address</t>
+          <t>developed</t>
         </is>
       </c>
       <c r="EZ1" s="1" t="inlineStr">
         <is>
-          <t>much</t>
+          <t>methods</t>
         </is>
       </c>
       <c r="FA1" s="1" t="inlineStr">
         <is>
-          <t>opportunities</t>
+          <t>data</t>
         </is>
       </c>
       <c r="FB1" s="1" t="inlineStr">
         <is>
-          <t>experience</t>
+          <t>ward</t>
         </is>
       </c>
       <c r="FC1" s="1" t="inlineStr">
         <is>
-          <t>competence</t>
+          <t>dg</t>
         </is>
       </c>
       <c r="FD1" s="1" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>robinson</t>
         </is>
       </c>
       <c r="FE1" s="1" t="inlineStr">
         <is>
-          <t>findings</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="FF1" s="1" t="inlineStr">
         <is>
-          <t>gardner</t>
+          <t>bm</t>
         </is>
       </c>
       <c r="FG1" s="1" t="inlineStr">
         <is>
-          <t>shore</t>
+          <t>grade</t>
         </is>
       </c>
       <c r="FH1" s="1" t="inlineStr">
         <is>
-          <t>robinson</t>
+          <t>may</t>
         </is>
       </c>
       <c r="FI1" s="1" t="inlineStr">
         <is>
-          <t>developed</t>
+          <t>home</t>
         </is>
       </c>
       <c r="FJ1" s="1" t="inlineStr">
         <is>
-          <t>dg</t>
+          <t>elementary</t>
         </is>
       </c>
       <c r="FK1" s="1" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>purdue</t>
         </is>
       </c>
       <c r="FL1" s="1" t="inlineStr">
         <is>
-          <t>ward</t>
+          <t>long-term</t>
         </is>
       </c>
       <c r="FM1" s="1" t="inlineStr">
         <is>
-          <t>gifted-children</t>
+          <t>needs</t>
         </is>
       </c>
       <c r="FN1" s="1" t="inlineStr">
         <is>
-          <t>regular</t>
+          <t>kolloff</t>
         </is>
       </c>
       <c r="FO1" s="1" t="inlineStr">
         <is>
-          <t>intrinsic</t>
+          <t>visitor</t>
         </is>
       </c>
       <c r="FP1" s="1" t="inlineStr">
         <is>
-          <t>districts</t>
+          <t>three</t>
         </is>
       </c>
       <c r="FQ1" s="1" t="inlineStr">
         <is>
-          <t>motivation</t>
+          <t>identified</t>
         </is>
       </c>
       <c r="FR1" s="1" t="inlineStr">
         <is>
-          <t>bm</t>
+          <t>studies</t>
         </is>
       </c>
       <c r="FS1" s="1" t="inlineStr">
         <is>
-          <t>district</t>
+          <t>pull-out</t>
         </is>
       </c>
       <c r="FT1" s="1" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>presented</t>
         </is>
       </c>
       <c r="FU1" s="1" t="inlineStr">
         <is>
-          <t>methods</t>
+          <t>extending</t>
         </is>
       </c>
       <c r="FV1" s="1" t="inlineStr">
         <is>
-          <t>an</t>
+          <t>analysis</t>
         </is>
       </c>
       <c r="FW1" s="1" t="inlineStr">
         <is>
-          <t>grade</t>
+          <t>process</t>
         </is>
       </c>
       <c r="FX1" s="1" t="inlineStr">
         <is>
-          <t>may</t>
+          <t>schools</t>
         </is>
       </c>
       <c r="FY1" s="1" t="inlineStr">
         <is>
-          <t>identified</t>
+          <t>provide</t>
         </is>
       </c>
       <c r="FZ1" s="1" t="inlineStr">
         <is>
-          <t>analysis</t>
+          <t>cognitive</t>
         </is>
       </c>
       <c r="GA1" s="1" t="inlineStr">
         <is>
-          <t>kolloff</t>
+          <t>among</t>
         </is>
       </c>
       <c r="GB1" s="1" t="inlineStr">
         <is>
-          <t>long-term</t>
+          <t>relationships</t>
         </is>
       </c>
       <c r="GC1" s="1" t="inlineStr">
         <is>
-          <t>needs</t>
+          <t>models</t>
         </is>
       </c>
       <c r="GD1" s="1" t="inlineStr">
         <is>
-          <t>extending</t>
+          <t>socioeconomically</t>
         </is>
       </c>
       <c r="GE1" s="1" t="inlineStr">
         <is>
-          <t>purdue</t>
+          <t>serve</t>
         </is>
       </c>
       <c r="GF1" s="1" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>often</t>
         </is>
       </c>
       <c r="GG1" s="1" t="inlineStr">
         <is>
-          <t>presented</t>
+          <t>related</t>
         </is>
       </c>
       <c r="GH1" s="1" t="inlineStr">
         <is>
-          <t>studies</t>
+          <t>participating</t>
         </is>
       </c>
       <c r="GI1" s="1" t="inlineStr">
         <is>
-          <t>elementary</t>
+          <t>various</t>
         </is>
       </c>
       <c r="GJ1" s="1" t="inlineStr">
         <is>
-          <t>issues</t>
+          <t>also</t>
         </is>
       </c>
       <c r="GK1" s="1" t="inlineStr">
         <is>
-          <t>oriented</t>
+          <t>emphasis</t>
         </is>
       </c>
       <c r="GL1" s="1" t="inlineStr">
         <is>
-          <t>home</t>
+          <t>measures</t>
         </is>
       </c>
       <c r="GM1" s="1" t="inlineStr">
         <is>
-          <t>visitor</t>
+          <t>untrained</t>
         </is>
       </c>
       <c r="GN1" s="1" t="inlineStr">
         <is>
-          <t>schools</t>
+          <t>evaluation</t>
         </is>
       </c>
       <c r="GO1" s="1" t="inlineStr">
         <is>
-          <t>too</t>
+          <t>skills</t>
         </is>
       </c>
       <c r="GP1" s="1" t="inlineStr">
         <is>
-          <t>pull-out</t>
+          <t>gt</t>
         </is>
       </c>
       <c r="GQ1" s="1" t="inlineStr">
         <is>
-          <t>our</t>
+          <t>learning</t>
         </is>
       </c>
       <c r="GR1" s="1" t="inlineStr">
         <is>
-          <t>november</t>
+          <t>relations</t>
         </is>
       </c>
       <c r="GS1" s="1" t="inlineStr">
         <is>
-          <t>1993</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="GT1" s="1" t="inlineStr">
         <is>
-          <t>asking</t>
+          <t>present</t>
         </is>
       </c>
       <c r="GU1" s="1" t="inlineStr">
         <is>
-          <t>keynote</t>
+          <t>solving</t>
         </is>
       </c>
       <c r="GV1" s="1" t="inlineStr">
         <is>
-          <t>national-association-for-gifted-children</t>
+          <t>discussed</t>
         </is>
       </c>
       <c r="GW1" s="1" t="inlineStr">
         <is>
-          <t>relationships</t>
+          <t>nontraditional</t>
         </is>
       </c>
       <c r="GX1" s="1" t="inlineStr">
         <is>
-          <t>provide</t>
+          <t>eliot</t>
         </is>
       </c>
       <c r="GY1" s="1" t="inlineStr">
         <is>
-          <t>models</t>
+          <t>concept</t>
         </is>
       </c>
       <c r="GZ1" s="1" t="inlineStr">
         <is>
-          <t>among</t>
+          <t>stravinsky</t>
         </is>
       </c>
       <c r="HA1" s="1" t="inlineStr">
         <is>
-          <t>cognitive</t>
+          <t>seen</t>
         </is>
       </c>
       <c r="HB1" s="1" t="inlineStr">
         <is>
-          <t>three</t>
+          <t>einstein</t>
         </is>
       </c>
       <c r="HC1" s="1" t="inlineStr">
         <is>
-          <t>socioeconomically</t>
+          <t>freud</t>
         </is>
       </c>
       <c r="HD1" s="1" t="inlineStr">
         <is>
-          <t>related</t>
+          <t>anatomy</t>
         </is>
       </c>
       <c r="HE1" s="1" t="inlineStr">
         <is>
-          <t>evaluation</t>
+          <t>gandhi</t>
         </is>
       </c>
       <c r="HF1" s="1" t="inlineStr">
         <is>
-          <t>present</t>
+          <t>based</t>
         </is>
       </c>
       <c r="HG1" s="1" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>picasso</t>
         </is>
       </c>
       <c r="HH1" s="1" t="inlineStr">
         <is>
-          <t>learning</t>
+          <t>observation</t>
         </is>
       </c>
       <c r="HI1" s="1" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>minds</t>
         </is>
       </c>
       <c r="HJ1" s="1" t="inlineStr">
         <is>
-          <t>these</t>
+          <t>lives</t>
         </is>
       </c>
       <c r="HK1" s="1" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>using</t>
         </is>
       </c>
       <c r="HL1" s="1" t="inlineStr">
         <is>
-          <t>also</t>
+          <t>graham</t>
         </is>
       </c>
       <c r="HM1" s="1" t="inlineStr">
         <is>
-          <t>participating</t>
+          <t>received</t>
         </is>
       </c>
       <c r="HN1" s="1" t="inlineStr">
         <is>
-          <t>h</t>
+          <t>purpose</t>
         </is>
       </c>
       <c r="HO1" s="1" t="inlineStr">
         <is>
-          <t>solving</t>
+          <t>creating</t>
         </is>
       </c>
       <c r="HP1" s="1" t="inlineStr">
         <is>
-          <t>serve</t>
+          <t>procedures</t>
         </is>
       </c>
       <c r="HQ1" s="1" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>within</t>
         </is>
       </c>
       <c r="HR1" s="1" t="inlineStr">
         <is>
-          <t>nontraditional</t>
+          <t>two</t>
         </is>
       </c>
       <c r="HS1" s="1" t="inlineStr">
         <is>
-          <t>emphasis</t>
+          <t>optimal</t>
         </is>
       </c>
       <c r="HT1" s="1" t="inlineStr">
         <is>
-          <t>often</t>
+          <t>task</t>
         </is>
       </c>
       <c r="HU1" s="1" t="inlineStr">
         <is>
-          <t>observation</t>
+          <t>diverse</t>
         </is>
       </c>
       <c r="HV1" s="1" t="inlineStr">
         <is>
-          <t>gt</t>
+          <t>portfolio</t>
         </is>
       </c>
       <c r="HW1" s="1" t="inlineStr">
         <is>
-          <t>discussed</t>
+          <t>experienced</t>
         </is>
       </c>
       <c r="HX1" s="1" t="inlineStr">
         <is>
-          <t>measures</t>
+          <t>kindergarten</t>
         </is>
       </c>
       <c r="HY1" s="1" t="inlineStr">
         <is>
-          <t>skills</t>
+          <t>ways</t>
         </is>
       </c>
       <c r="HZ1" s="1" t="inlineStr">
         <is>
-          <t>untrained</t>
+          <t>thinking</t>
         </is>
       </c>
       <c r="IA1" s="1" t="inlineStr">
         <is>
-          <t>relations</t>
+          <t>classrooms</t>
         </is>
       </c>
       <c r="IB1" s="1" t="inlineStr">
         <is>
-          <t>purpose</t>
+          <t>classes</t>
         </is>
       </c>
       <c r="IC1" s="1" t="inlineStr">
         <is>
-          <t>using</t>
+          <t>young</t>
         </is>
       </c>
       <c r="ID1" s="1" t="inlineStr">
         <is>
-          <t>received</t>
+          <t>exceptional</t>
         </is>
       </c>
       <c r="IE1" s="1" t="inlineStr">
         <is>
-          <t>concept</t>
+          <t>1988</t>
         </is>
       </c>
       <c r="IF1" s="1" t="inlineStr">
         <is>
-          <t>within</t>
+          <t>components</t>
         </is>
       </c>
       <c r="IG1" s="1" t="inlineStr">
         <is>
-          <t>thinking</t>
+          <t>previously</t>
         </is>
       </c>
       <c r="IH1" s="1" t="inlineStr">
         <is>
-          <t>classrooms</t>
+          <t>triad</t>
         </is>
       </c>
       <c r="II1" s="1" t="inlineStr">
         <is>
-          <t>their</t>
+          <t>subjects</t>
         </is>
       </c>
       <c r="IJ1" s="1" t="inlineStr">
         <is>
-          <t>1988</t>
+          <t>families</t>
         </is>
       </c>
       <c r="IK1" s="1" t="inlineStr">
         <is>
-          <t>kindergarten</t>
+          <t>made</t>
         </is>
       </c>
       <c r="IL1" s="1" t="inlineStr">
         <is>
-          <t>classes</t>
+          <t>instructional</t>
         </is>
       </c>
       <c r="IM1" s="1" t="inlineStr">
         <is>
-          <t>young</t>
+          <t>included</t>
         </is>
       </c>
       <c r="IN1" s="1" t="inlineStr">
         <is>
-          <t>procedures</t>
+          <t>compacting</t>
         </is>
       </c>
       <c r="IO1" s="1" t="inlineStr">
         <is>
-          <t>exceptional</t>
+          <t>promise</t>
         </is>
       </c>
       <c r="IP1" s="1" t="inlineStr">
         <is>
-          <t>portfolio</t>
+          <t>high-ability</t>
         </is>
       </c>
       <c r="IQ1" s="1" t="inlineStr">
         <is>
-          <t>two</t>
+          <t>activities</t>
         </is>
       </c>
       <c r="IR1" s="1" t="inlineStr">
         <is>
-          <t>based</t>
+          <t>different</t>
         </is>
       </c>
       <c r="IS1" s="1" t="inlineStr">
         <is>
-          <t>various</t>
+          <t>implemented</t>
         </is>
       </c>
       <c r="IT1" s="1" t="inlineStr">
         <is>
-          <t>ways</t>
+          <t>classmates</t>
         </is>
       </c>
       <c r="IU1" s="1" t="inlineStr">
         <is>
-          <t>creating</t>
+          <t>dynamic</t>
         </is>
       </c>
       <c r="IV1" s="1" t="inlineStr">
         <is>
-          <t>diverse</t>
+          <t>group</t>
         </is>
       </c>
       <c r="IW1" s="1" t="inlineStr">
         <is>
-          <t>through</t>
+          <t>especially</t>
         </is>
       </c>
       <c r="IX1" s="1" t="inlineStr">
         <is>
-          <t>seen</t>
+          <t>''</t>
         </is>
       </c>
       <c r="IY1" s="1" t="inlineStr">
         <is>
-          <t>stravinsky</t>
+          <t>academically</t>
         </is>
       </c>
       <c r="IZ1" s="1" t="inlineStr">
         <is>
-          <t>subjects</t>
+          <t>performing</t>
         </is>
       </c>
       <c r="JA1" s="1" t="inlineStr">
         <is>
-          <t>included</t>
+          <t>beyond</t>
         </is>
       </c>
       <c r="JB1" s="1" t="inlineStr">
         <is>
-          <t>anatomy</t>
+          <t>special</t>
         </is>
       </c>
       <c r="JC1" s="1" t="inlineStr">
         <is>
-          <t>previously</t>
+          <t>``</t>
         </is>
       </c>
       <c r="JD1" s="1" t="inlineStr">
         <is>
-          <t>compacting</t>
+          <t>words</t>
         </is>
       </c>
       <c r="JE1" s="1" t="inlineStr">
         <is>
-          <t>einstein</t>
+          <t>less</t>
         </is>
       </c>
       <c r="JF1" s="1" t="inlineStr">
         <is>
-          <t>eliot</t>
+          <t>best</t>
         </is>
       </c>
       <c r="JG1" s="1" t="inlineStr">
         <is>
-          <t>freud</t>
+          <t>hidden</t>
         </is>
       </c>
       <c r="JH1" s="1" t="inlineStr">
         <is>
-          <t>gandhi</t>
+          <t>paper</t>
         </is>
       </c>
       <c r="JI1" s="1" t="inlineStr">
         <is>
-          <t>optimal</t>
+          <t>problem</t>
         </is>
       </c>
       <c r="JJ1" s="1" t="inlineStr">
         <is>
-          <t>graham</t>
+          <t>provided</t>
         </is>
       </c>
       <c r="JK1" s="1" t="inlineStr">
         <is>
-          <t>experienced</t>
+          <t>problem-solving</t>
         </is>
       </c>
       <c r="JL1" s="1" t="inlineStr">
         <is>
-          <t>lives</t>
+          <t>years</t>
         </is>
       </c>
       <c r="JM1" s="1" t="inlineStr">
         <is>
-          <t>activities</t>
+          <t>indicated</t>
         </is>
       </c>
       <c r="JN1" s="1" t="inlineStr">
         <is>
-          <t>minds</t>
+          <t>professional</t>
         </is>
       </c>
       <c r="JO1" s="1" t="inlineStr">
         <is>
-          <t>triad</t>
+          <t>state</t>
         </is>
       </c>
       <c r="JP1" s="1" t="inlineStr">
         <is>
-          <t>picasso</t>
+          <t>scale</t>
         </is>
       </c>
       <c r="JQ1" s="1" t="inlineStr">
         <is>
-          <t>made</t>
+          <t>1959</t>
         </is>
       </c>
       <c r="JR1" s="1" t="inlineStr">
         <is>
-          <t>high-ability</t>
+          <t>techniques</t>
         </is>
       </c>
       <c r="JS1" s="1" t="inlineStr">
         <is>
-          <t>task</t>
+          <t>kerr</t>
         </is>
       </c>
       <c r="JT1" s="1" t="inlineStr">
         <is>
-          <t>instructional</t>
+          <t>pegnato</t>
         </is>
       </c>
       <c r="JU1" s="1" t="inlineStr">
         <is>
-          <t>components</t>
+          <t>treatment</t>
         </is>
       </c>
       <c r="JV1" s="1" t="inlineStr">
         <is>
-          <t>e</t>
+          <t>eliminate</t>
         </is>
       </c>
       <c r="JW1" s="1" t="inlineStr">
         <is>
-          <t>implemented</t>
+          <t>identify</t>
         </is>
       </c>
       <c r="JX1" s="1" t="inlineStr">
         <is>
-          <t>classmates</t>
+          <t>efficiency</t>
         </is>
       </c>
       <c r="JY1" s="1" t="inlineStr">
         <is>
-          <t>families</t>
+          <t>cited</t>
         </is>
       </c>
       <c r="JZ1" s="1" t="inlineStr">
         <is>
-          <t>dynamic</t>
+          <t>birch</t>
         </is>
       </c>
       <c r="KA1" s="1" t="inlineStr">
         <is>
-          <t>different</t>
+          <t>receive</t>
         </is>
       </c>
       <c r="KB1" s="1" t="inlineStr">
         <is>
-          <t>especially</t>
+          <t>alternative</t>
         </is>
       </c>
       <c r="KC1" s="1" t="inlineStr">
         <is>
-          <t>group</t>
+          <t>theory</t>
         </is>
       </c>
       <c r="KD1" s="1" t="inlineStr">
         <is>
-          <t>promise</t>
+          <t>nominations</t>
         </is>
       </c>
       <c r="KE1" s="1" t="inlineStr">
         <is>
-          <t>``</t>
+          <t>services</t>
         </is>
       </c>
       <c r="KF1" s="1" t="inlineStr">
         <is>
-          <t>g</t>
+          <t>overview</t>
         </is>
       </c>
       <c r="KG1" s="1" t="inlineStr">
         <is>
-          <t>academically</t>
+          <t>interactive</t>
         </is>
       </c>
       <c r="KH1" s="1" t="inlineStr">
         <is>
-          <t>special</t>
+          <t>parents</t>
         </is>
       </c>
       <c r="KI1" s="1" t="inlineStr">
         <is>
-          <t>less</t>
+          <t>intensive</t>
         </is>
       </c>
       <c r="KJ1" s="1" t="inlineStr">
         <is>
-          <t>''</t>
+          <t>responses</t>
         </is>
       </c>
       <c r="KK1" s="1" t="inlineStr">
         <is>
-          <t>problem</t>
+          <t>young-children</t>
         </is>
       </c>
       <c r="KL1" s="1" t="inlineStr">
         <is>
-          <t>hidden</t>
+          <t>controlling</t>
         </is>
       </c>
       <c r="KM1" s="1" t="inlineStr">
         <is>
-          <t>provided</t>
+          <t>instructor</t>
         </is>
       </c>
       <c r="KN1" s="1" t="inlineStr">
         <is>
-          <t>paper</t>
+          <t>author</t>
         </is>
       </c>
       <c r="KO1" s="1" t="inlineStr">
         <is>
-          <t>problem-solving</t>
+          <t>practicum</t>
         </is>
       </c>
       <c r="KP1" s="1" t="inlineStr">
         <is>
-          <t>state</t>
+          <t>dialogue</t>
         </is>
       </c>
       <c r="KQ1" s="1" t="inlineStr">
         <is>
-          <t>years</t>
+          <t>hypotheses</t>
         </is>
       </c>
       <c r="KR1" s="1" t="inlineStr">
         <is>
-          <t>professional</t>
+          <t>ideologies</t>
         </is>
       </c>
       <c r="KS1" s="1" t="inlineStr">
         <is>
-          <t>best</t>
+          <t>three-stage</t>
         </is>
       </c>
       <c r="KT1" s="1" t="inlineStr">
         <is>
-          <t>identify</t>
+          <t>definitions</t>
         </is>
       </c>
       <c r="KU1" s="1" t="inlineStr">
         <is>
-          <t>scale</t>
+          <t>water-jar</t>
         </is>
       </c>
       <c r="KV1" s="1" t="inlineStr">
         <is>
-          <t>theory</t>
+          <t>environments</t>
         </is>
       </c>
       <c r="KW1" s="1" t="inlineStr">
         <is>
-          <t>beyond</t>
+          <t>assumed</t>
         </is>
       </c>
       <c r="KX1" s="1" t="inlineStr">
         <is>
-          <t>eliminate</t>
+          <t>showed</t>
         </is>
       </c>
       <c r="KY1" s="1" t="inlineStr">
         <is>
-          <t>performing</t>
+          <t>level</t>
         </is>
       </c>
       <c r="KZ1" s="1" t="inlineStr">
         <is>
-          <t>kerr</t>
+          <t>story</t>
         </is>
       </c>
       <c r="LA1" s="1" t="inlineStr">
         <is>
-          <t>treatment</t>
+          <t>breaking</t>
         </is>
       </c>
       <c r="LB1" s="1" t="inlineStr">
         <is>
-          <t>words</t>
+          <t>leadership</t>
         </is>
       </c>
       <c r="LC1" s="1" t="inlineStr">
         <is>
-          <t>alternative</t>
+          <t>errors</t>
         </is>
       </c>
       <c r="LD1" s="1" t="inlineStr">
         <is>
-          <t>services</t>
+          <t>modified</t>
         </is>
       </c>
       <c r="LE1" s="1" t="inlineStr">
         <is>
-          <t>indicated</t>
+          <t>form</t>
         </is>
       </c>
       <c r="LF1" s="1" t="inlineStr">
         <is>
-          <t>overview</t>
+          <t>initial</t>
         </is>
       </c>
       <c r="LG1" s="1" t="inlineStr">
         <is>
-          <t>author</t>
+          <t>new</t>
         </is>
       </c>
       <c r="LH1" s="1" t="inlineStr">
         <is>
-          <t>birch</t>
+          <t>comparison</t>
         </is>
       </c>
       <c r="LI1" s="1" t="inlineStr">
         <is>
-          <t>three-stage</t>
+          <t>learn</t>
         </is>
       </c>
       <c r="LJ1" s="1" t="inlineStr">
         <is>
-          <t>1959</t>
+          <t>demonstrated</t>
         </is>
       </c>
       <c r="LK1" s="1" t="inlineStr">
         <is>
-          <t>young-children</t>
+          <t>means</t>
         </is>
       </c>
       <c r="LL1" s="1" t="inlineStr">
         <is>
-          <t>cited</t>
+          <t>recognize</t>
         </is>
       </c>
       <c r="LM1" s="1" t="inlineStr">
         <is>
-          <t>efficiency</t>
+          <t>excellence</t>
         </is>
       </c>
       <c r="LN1" s="1" t="inlineStr">
         <is>
-          <t>parents</t>
+          <t>course</t>
         </is>
       </c>
       <c r="LO1" s="1" t="inlineStr">
         <is>
-          <t>receive</t>
+          <t>train</t>
         </is>
       </c>
       <c r="LP1" s="1" t="inlineStr">
         <is>
-          <t>intensive</t>
+          <t>behavior</t>
         </is>
       </c>
       <c r="LQ1" s="1" t="inlineStr">
         <is>
-          <t>techniques</t>
+          <t>multidimensional</t>
         </is>
       </c>
       <c r="LR1" s="1" t="inlineStr">
         <is>
-          <t>pegnato</t>
+          <t>underrepresentation</t>
         </is>
       </c>
       <c r="LS1" s="1" t="inlineStr">
         <is>
-          <t>once</t>
+          <t>could</t>
         </is>
       </c>
       <c r="LT1" s="1" t="inlineStr">
         <is>
-          <t>nominations</t>
+          <t>talents</t>
         </is>
       </c>
       <c r="LU1" s="1" t="inlineStr">
         <is>
-          <t>controlling</t>
+          <t>suggest</t>
         </is>
       </c>
       <c r="LV1" s="1" t="inlineStr">
         <is>
-          <t>assumed</t>
+          <t>academic</t>
         </is>
       </c>
       <c r="LW1" s="1" t="inlineStr">
         <is>
-          <t>initial</t>
+          <t>would</t>
         </is>
       </c>
       <c r="LX1" s="1" t="inlineStr">
         <is>
-          <t>hypotheses</t>
+          <t>sample</t>
         </is>
       </c>
       <c r="LY1" s="1" t="inlineStr">
         <is>
-          <t>definitions</t>
+          <t>key</t>
         </is>
       </c>
       <c r="LZ1" s="1" t="inlineStr">
         <is>
-          <t>dialogue</t>
+          <t>description</t>
         </is>
       </c>
       <c r="MA1" s="1" t="inlineStr">
         <is>
-          <t>water-jar</t>
+          <t>label</t>
         </is>
       </c>
       <c r="MB1" s="1" t="inlineStr">
         <is>
-          <t>environments</t>
+          <t>clue</t>
         </is>
       </c>
       <c r="MC1" s="1" t="inlineStr">
         <is>
-          <t>story</t>
+          <t>aggression</t>
         </is>
       </c>
       <c r="MD1" s="1" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>rationale</t>
         </is>
       </c>
       <c r="ME1" s="1" t="inlineStr">
         <is>
-          <t>leadership</t>
+          <t>friendship</t>
         </is>
       </c>
       <c r="MF1" s="1" t="inlineStr">
         <is>
-          <t>modified</t>
+          <t>friends</t>
         </is>
       </c>
       <c r="MG1" s="1" t="inlineStr">
         <is>
-          <t>ideologies</t>
+          <t>de-emphasizes</t>
         </is>
       </c>
       <c r="MH1" s="1" t="inlineStr">
         <is>
-          <t>form</t>
+          <t>peers</t>
         </is>
       </c>
       <c r="MI1" s="1" t="inlineStr">
         <is>
-          <t>errors</t>
+          <t>site-appropriate</t>
         </is>
       </c>
       <c r="MJ1" s="1" t="inlineStr">
         <is>
-          <t>responses</t>
+          <t>type</t>
         </is>
       </c>
       <c r="MK1" s="1" t="inlineStr">
         <is>
-          <t>breaking</t>
+          <t>well</t>
         </is>
       </c>
       <c r="ML1" s="1" t="inlineStr">
         <is>
-          <t>practicum</t>
+          <t>tests</t>
         </is>
       </c>
       <c r="MM1" s="1" t="inlineStr">
         <is>
-          <t>showed</t>
+          <t>gained</t>
         </is>
       </c>
       <c r="MN1" s="1" t="inlineStr">
         <is>
-          <t>comparison</t>
+          <t>disadvantaged-students</t>
         </is>
       </c>
       <c r="MO1" s="1" t="inlineStr">
         <is>
-          <t>interactive</t>
+          <t>relevant</t>
         </is>
       </c>
       <c r="MP1" s="1" t="inlineStr">
         <is>
-          <t>instructor</t>
+          <t>emphasizes</t>
         </is>
       </c>
       <c r="MQ1" s="1" t="inlineStr">
         <is>
-          <t>recognize</t>
+          <t>result</t>
         </is>
       </c>
       <c r="MR1" s="1" t="inlineStr">
         <is>
-          <t>could</t>
+          <t>orientation</t>
         </is>
       </c>
       <c r="MS1" s="1" t="inlineStr">
         <is>
-          <t>behavior</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="MT1" s="1" t="inlineStr">
         <is>
-          <t>would</t>
+          <t>toward</t>
         </is>
       </c>
       <c r="MU1" s="1" t="inlineStr">
         <is>
-          <t>level</t>
+          <t>class</t>
         </is>
       </c>
       <c r="MV1" s="1" t="inlineStr">
         <is>
-          <t>learn</t>
+          <t>synergy</t>
         </is>
       </c>
       <c r="MW1" s="1" t="inlineStr">
         <is>
-          <t>suggest</t>
+          <t>standardized</t>
         </is>
       </c>
       <c r="MX1" s="1" t="inlineStr">
         <is>
-          <t>multidimensional</t>
+          <t>validation</t>
         </is>
       </c>
       <c r="MY1" s="1" t="inlineStr">
         <is>
+          <t>technique</t>
+        </is>
+      </c>
+      <c r="MZ1" s="1" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="NA1" s="1" t="inlineStr">
+        <is>
+          <t>graduate</t>
+        </is>
+      </c>
+      <c r="NB1" s="1" t="inlineStr">
+        <is>
+          <t>urban</t>
+        </is>
+      </c>
+      <c r="NC1" s="1" t="inlineStr">
+        <is>
           <t>compare</t>
         </is>
       </c>
-      <c r="MZ1" s="1" t="inlineStr">
-        <is>
-          <t>disadvantaged-students</t>
-        </is>
-      </c>
-      <c r="NA1" s="1" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-      <c r="NB1" s="1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="NC1" s="1" t="inlineStr">
-        <is>
-          <t>de-emphasizes</t>
-        </is>
-      </c>
       <c r="ND1" s="1" t="inlineStr">
         <is>
-          <t>aggression</t>
+          <t>one</t>
         </is>
       </c>
       <c r="NE1" s="1" t="inlineStr">
         <is>
-          <t>underrepresentation</t>
+          <t>populations</t>
         </is>
       </c>
       <c r="NF1" s="1" t="inlineStr">
         <is>
-          <t>clue</t>
+          <t>indicate</t>
         </is>
       </c>
       <c r="NG1" s="1" t="inlineStr">
         <is>
-          <t>friends</t>
+          <t>schoolwide</t>
         </is>
       </c>
       <c r="NH1" s="1" t="inlineStr">
         <is>
-          <t>friendship</t>
+          <t>emotional</t>
         </is>
       </c>
       <c r="NI1" s="1" t="inlineStr">
         <is>
-          <t>peers</t>
+          <t>found</t>
         </is>
       </c>
       <c r="NJ1" s="1" t="inlineStr">
         <is>
-          <t>emphasizes</t>
+          <t>relating</t>
         </is>
       </c>
       <c r="NK1" s="1" t="inlineStr">
         <is>
-          <t>key</t>
+          <t>number</t>
         </is>
       </c>
       <c r="NL1" s="1" t="inlineStr">
         <is>
-          <t>means</t>
+          <t>perspectives</t>
         </is>
       </c>
       <c r="NM1" s="1" t="inlineStr">
         <is>
-          <t>validation</t>
+          <t>perceptions</t>
         </is>
       </c>
       <c r="NN1" s="1" t="inlineStr">
         <is>
-          <t>one</t>
+          <t>selected</t>
         </is>
       </c>
       <c r="NO1" s="1" t="inlineStr">
         <is>
-          <t>completed</t>
+          <t>several</t>
         </is>
       </c>
       <c r="NP1" s="1" t="inlineStr">
         <is>
-          <t>urban</t>
+          <t>questions</t>
         </is>
       </c>
       <c r="NQ1" s="1" t="inlineStr">
         <is>
-          <t>tests</t>
+          <t>others</t>
         </is>
       </c>
       <c r="NR1" s="1" t="inlineStr">
         <is>
-          <t>result</t>
+          <t>1986</t>
         </is>
       </c>
       <c r="NS1" s="1" t="inlineStr">
         <is>
-          <t>technique</t>
+          <t>affective</t>
         </is>
       </c>
       <c r="NT1" s="1" t="inlineStr">
         <is>
-          <t>synergy</t>
+          <t>concluded</t>
         </is>
       </c>
       <c r="NU1" s="1" t="inlineStr">
         <is>
-          <t>standardized</t>
+          <t>types</t>
         </is>
       </c>
       <c r="NV1" s="1" t="inlineStr">
         <is>
-          <t>site-appropriate</t>
+          <t>like</t>
         </is>
       </c>
       <c r="NW1" s="1" t="inlineStr">
         <is>
-          <t>rationale</t>
+          <t>impact</t>
         </is>
       </c>
       <c r="NX1" s="1" t="inlineStr">
         <is>
-          <t>talents</t>
+          <t>reports</t>
         </is>
       </c>
       <c r="NY1" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>tasks</t>
         </is>
       </c>
       <c r="NZ1" s="1" t="inlineStr">
         <is>
-          <t>course</t>
+          <t>response</t>
         </is>
       </c>
       <c r="OA1" s="1" t="inlineStr">
         <is>
-          <t>academic</t>
+          <t>change</t>
         </is>
       </c>
       <c r="OB1" s="1" t="inlineStr">
         <is>
-          <t>well</t>
+          <t>unique</t>
         </is>
       </c>
       <c r="OC1" s="1" t="inlineStr">
         <is>
-          <t>gained</t>
+          <t>requires</t>
         </is>
       </c>
       <c r="OD1" s="1" t="inlineStr">
         <is>
-          <t>demonstrated</t>
+          <t>provision</t>
         </is>
       </c>
       <c r="OE1" s="1" t="inlineStr">
         <is>
-          <t>field</t>
+          <t>kentucky</t>
         </is>
       </c>
       <c r="OF1" s="1" t="inlineStr">
         <is>
-          <t>class</t>
+          <t>interdisciplinary</t>
         </is>
       </c>
       <c r="OG1" s="1" t="inlineStr">
         <is>
-          <t>toward</t>
+          <t>groups</t>
         </is>
       </c>
       <c r="OH1" s="1" t="inlineStr">
         <is>
-          <t>emotional</t>
+          <t>innovative</t>
         </is>
       </c>
       <c r="OI1" s="1" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>expanded</t>
         </is>
       </c>
       <c r="OJ1" s="1" t="inlineStr">
         <is>
-          <t>found</t>
+          <t>statewide</t>
         </is>
       </c>
       <c r="OK1" s="1" t="inlineStr">
         <is>
-          <t>perceptions</t>
+          <t>educational-opportunities</t>
         </is>
       </c>
       <c r="OL1" s="1" t="inlineStr">
         <is>
-          <t>graduate</t>
+          <t>personal</t>
         </is>
       </c>
       <c r="OM1" s="1" t="inlineStr">
         <is>
-          <t>label</t>
+          <t>presents</t>
         </is>
       </c>
       <c r="ON1" s="1" t="inlineStr">
         <is>
-          <t>excellence</t>
+          <t>associated</t>
         </is>
       </c>
       <c r="OO1" s="1" t="inlineStr">
         <is>
-          <t>questions</t>
+          <t>effectively</t>
         </is>
       </c>
       <c r="OP1" s="1" t="inlineStr">
         <is>
-          <t>response</t>
+          <t>compared</t>
         </is>
       </c>
       <c r="OQ1" s="1" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>creative</t>
         </is>
       </c>
       <c r="OR1" s="1" t="inlineStr">
         <is>
-          <t>orientation</t>
+          <t>team</t>
         </is>
       </c>
       <c r="OS1" s="1" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>investigated</t>
         </is>
       </c>
       <c r="OT1" s="1" t="inlineStr">
         <is>
-          <t>1986</t>
+          <t>parent</t>
         </is>
       </c>
       <c r="OU1" s="1" t="inlineStr">
         <is>
-          <t>like</t>
+          <t>examined</t>
         </is>
       </c>
       <c r="OV1" s="1" t="inlineStr">
         <is>
-          <t>tasks</t>
+          <t>ethnic</t>
         </is>
       </c>
       <c r="OW1" s="1" t="inlineStr">
         <is>
-          <t>relevant</t>
+          <t>brief</t>
         </is>
       </c>
       <c r="OX1" s="1" t="inlineStr">
         <is>
-          <t>selected</t>
+          <t>socioeconomic</t>
         </is>
       </c>
       <c r="OY1" s="1" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>represented</t>
         </is>
       </c>
       <c r="OZ1" s="1" t="inlineStr">
         <is>
-          <t>impact</t>
+          <t>effective</t>
         </is>
       </c>
       <c r="PA1" s="1" t="inlineStr">
         <is>
-          <t>after</t>
+          <t>taught</t>
         </is>
       </c>
       <c r="PB1" s="1" t="inlineStr">
         <is>
-          <t>affective</t>
+          <t>suggests</t>
         </is>
       </c>
       <c r="PC1" s="1" t="inlineStr">
         <is>
-          <t>concluded</t>
+          <t>significant</t>
         </is>
       </c>
       <c r="PD1" s="1" t="inlineStr">
         <is>
-          <t>reports</t>
+          <t>curricular</t>
         </is>
       </c>
       <c r="PE1" s="1" t="inlineStr">
         <is>
-          <t>unique</t>
+          <t>framework</t>
         </is>
       </c>
       <c r="PF1" s="1" t="inlineStr">
         <is>
-          <t>examined</t>
+          <t>evaluations</t>
         </is>
       </c>
       <c r="PG1" s="1" t="inlineStr">
         <is>
-          <t>groups</t>
+          <t>implementation</t>
         </is>
       </c>
       <c r="PH1" s="1" t="inlineStr">
         <is>
-          <t>indicate</t>
+          <t>awarded</t>
         </is>
       </c>
       <c r="PI1" s="1" t="inlineStr">
         <is>
-          <t>several</t>
+          <t>7+</t>
         </is>
       </c>
       <c r="PJ1" s="1" t="inlineStr">
         <is>
-          <t>change</t>
+          <t>brooklyn</t>
         </is>
       </c>
       <c r="PK1" s="1" t="inlineStr">
         <is>
-          <t>types</t>
+          <t>community</t>
         </is>
       </c>
       <c r="PL1" s="1" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>derived</t>
         </is>
       </c>
       <c r="PM1" s="1" t="inlineStr">
         <is>
-          <t>personal</t>
+          <t>18</t>
         </is>
       </c>
       <c r="PN1" s="1" t="inlineStr">
         <is>
-          <t>perspectives</t>
+          <t>outlines</t>
         </is>
       </c>
       <c r="PO1" s="1" t="inlineStr">
         <is>
-          <t>creative</t>
+          <t>intelligences</t>
         </is>
       </c>
       <c r="PP1" s="1" t="inlineStr">
         <is>
-          <t>schoolwide</t>
+          <t>involve</t>
         </is>
       </c>
       <c r="PQ1" s="1" t="inlineStr">
         <is>
-          <t>relating</t>
+          <t>multiple</t>
         </is>
       </c>
       <c r="PR1" s="1" t="inlineStr">
         <is>
-          <t>populations</t>
+          <t>operation</t>
         </is>
       </c>
       <c r="PS1" s="1" t="inlineStr">
         <is>
-          <t>requires</t>
+          <t>opportunity</t>
         </is>
       </c>
       <c r="PT1" s="1" t="inlineStr">
         <is>
-          <t>brief</t>
+          <t>philosophical</t>
         </is>
       </c>
       <c r="PU1" s="1" t="inlineStr">
         <is>
-          <t>socioeconomic</t>
+          <t>plus</t>
         </is>
       </c>
       <c r="PV1" s="1" t="inlineStr">
         <is>
-          <t>associated</t>
+          <t>prepare</t>
         </is>
       </c>
       <c r="PW1" s="1" t="inlineStr">
         <is>
-          <t>investigated</t>
+          <t>school-based</t>
         </is>
       </c>
       <c r="PX1" s="1" t="inlineStr">
         <is>
-          <t>compared</t>
+          <t>viewed</t>
         </is>
       </c>
       <c r="PY1" s="1" t="inlineStr">
         <is>
-          <t>framework</t>
+          <t>york</t>
         </is>
       </c>
       <c r="PZ1" s="1" t="inlineStr">
         <is>
-          <t>curricular</t>
+          <t>variety</t>
         </is>
       </c>
       <c r="QA1" s="1" t="inlineStr">
         <is>
-          <t>effectively</t>
+          <t>five</t>
         </is>
       </c>
       <c r="QB1" s="1" t="inlineStr">
         <is>
-          <t>effective</t>
+          <t>reinforcing</t>
         </is>
       </c>
       <c r="QC1" s="1" t="inlineStr">
         <is>
-          <t>taught</t>
+          <t>correlated</t>
         </is>
       </c>
       <c r="QD1" s="1" t="inlineStr">
         <is>
-          <t>innovative</t>
+          <t>obtained</t>
         </is>
       </c>
       <c r="QE1" s="1" t="inlineStr">
         <is>
-          <t>statewide</t>
+          <t>discussion</t>
         </is>
       </c>
       <c r="QF1" s="1" t="inlineStr">
         <is>
-          <t>interdisciplinary</t>
+          <t>grades</t>
         </is>
       </c>
       <c r="QG1" s="1" t="inlineStr">
         <is>
-          <t>expanded</t>
+          <t>42</t>
         </is>
       </c>
       <c r="QH1" s="1" t="inlineStr">
         <is>
-          <t>kentucky</t>
+          <t>climates</t>
         </is>
       </c>
       <c r="QI1" s="1" t="inlineStr">
         <is>
-          <t>parent</t>
+          <t>processes</t>
         </is>
       </c>
       <c r="QJ1" s="1" t="inlineStr">
         <is>
-          <t>presents</t>
+          <t>higher</t>
         </is>
       </c>
       <c r="QK1" s="1" t="inlineStr">
         <is>
-          <t>provision</t>
+          <t>leaders</t>
         </is>
       </c>
       <c r="QL1" s="1" t="inlineStr">
         <is>
-          <t>team</t>
+          <t>lecture</t>
         </is>
       </c>
       <c r="QM1" s="1" t="inlineStr">
         <is>
-          <t>educational-opportunities</t>
+          <t>meager</t>
         </is>
       </c>
       <c r="QN1" s="1" t="inlineStr">
         <is>
-          <t>brooklyn</t>
+          <t>reported</t>
         </is>
       </c>
       <c r="QO1" s="1" t="inlineStr">
         <is>
-          <t>intelligences</t>
+          <t>videotaped</t>
         </is>
       </c>
       <c r="QP1" s="1" t="inlineStr">
         <is>
-          <t>involve</t>
+          <t>sense</t>
         </is>
       </c>
       <c r="QQ1" s="1" t="inlineStr">
         <is>
-          <t>plus</t>
+          <t>third</t>
         </is>
       </c>
       <c r="QR1" s="1" t="inlineStr">
         <is>
-          <t>represented</t>
+          <t>universal</t>
         </is>
       </c>
       <c r="QS1" s="1" t="inlineStr">
         <is>
-          <t>correlated</t>
+          <t>adapted</t>
         </is>
       </c>
       <c r="QT1" s="1" t="inlineStr">
         <is>
-          <t>multiple</t>
+          <t>written</t>
         </is>
       </c>
       <c r="QU1" s="1" t="inlineStr">
         <is>
-          <t>reinforcing</t>
+          <t>meet</t>
         </is>
       </c>
       <c r="QV1" s="1" t="inlineStr">
         <is>
-          <t>leaders</t>
+          <t>and/or</t>
         </is>
       </c>
       <c r="QW1" s="1" t="inlineStr">
         <is>
-          <t>philosophical</t>
+          <t>authentic</t>
         </is>
       </c>
       <c r="QX1" s="1" t="inlineStr">
         <is>
-          <t>outlines</t>
+          <t>consequence</t>
         </is>
       </c>
       <c r="QY1" s="1" t="inlineStr">
         <is>
-          <t>higher</t>
+          <t>early</t>
         </is>
       </c>
       <c r="QZ1" s="1" t="inlineStr">
         <is>
-          <t>opportunity</t>
+          <t>empowering</t>
         </is>
       </c>
       <c r="RA1" s="1" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>plans</t>
         </is>
       </c>
       <c r="RB1" s="1" t="inlineStr">
         <is>
-          <t>grades</t>
+          <t>empowerment</t>
         </is>
       </c>
       <c r="RC1" s="1" t="inlineStr">
         <is>
-          <t>operation</t>
+          <t>expressed</t>
         </is>
       </c>
       <c r="RD1" s="1" t="inlineStr">
         <is>
-          <t>discussion</t>
+          <t>identifiers</t>
         </is>
       </c>
       <c r="RE1" s="1" t="inlineStr">
         <is>
-          <t>derived</t>
+          <t>examples</t>
         </is>
       </c>
       <c r="RF1" s="1" t="inlineStr">
         <is>
-          <t>five</t>
+          <t>self-regulation</t>
         </is>
       </c>
       <c r="RG1" s="1" t="inlineStr">
         <is>
-          <t>ethnic</t>
+          <t>inventory</t>
         </is>
       </c>
       <c r="RH1" s="1" t="inlineStr">
         <is>
-          <t>climates</t>
+          <t>underachievers</t>
         </is>
       </c>
       <c r="RI1" s="1" t="inlineStr">
         <is>
-          <t>obtained</t>
+          <t>45-hour</t>
         </is>
       </c>
       <c r="RJ1" s="1" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>administration</t>
         </is>
       </c>
       <c r="RK1" s="1" t="inlineStr">
         <is>
-          <t>evaluations</t>
+          <t>categories</t>
         </is>
       </c>
       <c r="RL1" s="1" t="inlineStr">
         <is>
-          <t>suggests</t>
+          <t>choices</t>
         </is>
       </c>
       <c r="RM1" s="1" t="inlineStr">
         <is>
-          <t>viewed</t>
+          <t>coopersmith</t>
         </is>
       </c>
       <c r="RN1" s="1" t="inlineStr">
         <is>
-          <t>7+</t>
+          <t>differences</t>
         </is>
       </c>
       <c r="RO1" s="1" t="inlineStr">
         <is>
-          <t>york</t>
+          <t>disabilities</t>
         </is>
       </c>
       <c r="RP1" s="1" t="inlineStr">
         <is>
-          <t>reported</t>
+          <t>eight</t>
         </is>
       </c>
       <c r="RQ1" s="1" t="inlineStr">
         <is>
-          <t>school-based</t>
+          <t>encouraged</t>
         </is>
       </c>
       <c r="RR1" s="1" t="inlineStr">
         <is>
-          <t>community</t>
+          <t>english</t>
         </is>
       </c>
       <c r="RS1" s="1" t="inlineStr">
         <is>
-          <t>prepare</t>
+          <t>work</t>
         </is>
       </c>
       <c r="RT1" s="1" t="inlineStr">
         <is>
-          <t>awarded</t>
+          <t>implementing</t>
         </is>
       </c>
       <c r="RU1" s="1" t="inlineStr">
         <is>
-          <t>meager</t>
+          <t>25</t>
         </is>
       </c>
       <c r="RV1" s="1" t="inlineStr">
         <is>
-          <t>variety</t>
+          <t>top</t>
         </is>
       </c>
       <c r="RW1" s="1" t="inlineStr">
         <is>
-          <t>lecture</t>
+          <t>3,000</t>
         </is>
       </c>
       <c r="RX1" s="1" t="inlineStr">
         <is>
-          <t>processes</t>
+          <t>limited</t>
         </is>
       </c>
       <c r="RY1" s="1" t="inlineStr">
         <is>
-          <t>significant</t>
+          <t>serves</t>
         </is>
       </c>
       <c r="RZ1" s="1" t="inlineStr">
         <is>
-          <t>implementation</t>
+          <t>test</t>
         </is>
       </c>
       <c r="SA1" s="1" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>minorities</t>
         </is>
       </c>
       <c r="SB1" s="1" t="inlineStr">
         <is>
-          <t>meet</t>
+          <t>subgroups</t>
         </is>
       </c>
       <c r="SC1" s="1" t="inlineStr">
         <is>
-          <t>each</t>
+          <t>placed</t>
         </is>
       </c>
       <c r="SD1" s="1" t="inlineStr">
         <is>
-          <t>plans</t>
+          <t>population</t>
         </is>
       </c>
       <c r="SE1" s="1" t="inlineStr">
         <is>
-          <t>third</t>
+          <t>pre-post</t>
         </is>
       </c>
       <c r="SF1" s="1" t="inlineStr">
         <is>
-          <t>videotaped</t>
+          <t>preliminary</t>
         </is>
       </c>
       <c r="SG1" s="1" t="inlineStr">
         <is>
-          <t>written</t>
+          <t>student-centered</t>
         </is>
       </c>
       <c r="SH1" s="1" t="inlineStr">
         <is>
-          <t>universal</t>
+          <t>speakers</t>
         </is>
       </c>
       <c r="SI1" s="1" t="inlineStr">
         <is>
-          <t>expressed</t>
+          <t>proportionately</t>
         </is>
       </c>
       <c r="SJ1" s="1" t="inlineStr">
         <is>
-          <t>identifiers</t>
+          <t>self-esteem</t>
         </is>
       </c>
       <c r="SK1" s="1" t="inlineStr">
         <is>
-          <t>examples</t>
+          <t>30</t>
         </is>
       </c>
       <c r="SL1" s="1" t="inlineStr">
         <is>
-          <t>empowerment</t>
+          <t>artists</t>
         </is>
       </c>
       <c r="SM1" s="1" t="inlineStr">
         <is>
-          <t>empowering</t>
+          <t>unveiling</t>
         </is>
       </c>
       <c r="SN1" s="1" t="inlineStr">
         <is>
-          <t>early</t>
+          <t>weeks</t>
         </is>
       </c>
       <c r="SO1" s="1" t="inlineStr">
         <is>
-          <t>consequence</t>
+          <t>took</t>
         </is>
       </c>
       <c r="SP1" s="1" t="inlineStr">
         <is>
-          <t>authentic</t>
+          <t>attending</t>
         </is>
       </c>
       <c r="SQ1" s="1" t="inlineStr">
         <is>
-          <t>adapted</t>
+          <t>teams</t>
         </is>
       </c>
       <c r="SR1" s="1" t="inlineStr">
         <is>
-          <t>and/or</t>
+          <t>audition</t>
         </is>
       </c>
       <c r="SS1" s="1" t="inlineStr">
         <is>
-          <t>sense</t>
+          <t>city</t>
         </is>
       </c>
       <c r="ST1" s="1" t="inlineStr">
         <is>
-          <t>eight</t>
+          <t>curricula</t>
         </is>
       </c>
       <c r="SU1" s="1" t="inlineStr">
         <is>
-          <t>45-hour</t>
+          <t>dance</t>
         </is>
       </c>
       <c r="SV1" s="1" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>demanding</t>
         </is>
       </c>
       <c r="SW1" s="1" t="inlineStr">
         <is>
-          <t>work</t>
+          <t>disciplined</t>
         </is>
       </c>
       <c r="SX1" s="1" t="inlineStr">
         <is>
-          <t>3,000</t>
+          <t>educators</t>
         </is>
       </c>
       <c r="SY1" s="1" t="inlineStr">
         <is>
-          <t>preliminary</t>
+          <t>efforts</t>
         </is>
       </c>
       <c r="SZ1" s="1" t="inlineStr">
         <is>
-          <t>underachievers</t>
+          <t>elementary-aged</t>
         </is>
       </c>
       <c r="TA1" s="1" t="inlineStr">
         <is>
-          <t>administration</t>
+          <t>esteem</t>
         </is>
       </c>
       <c r="TB1" s="1" t="inlineStr">
         <is>
-          <t>top</t>
+          <t>expressive</t>
         </is>
       </c>
       <c r="TC1" s="1" t="inlineStr">
         <is>
-          <t>proportionately</t>
+          <t>inner</t>
         </is>
       </c>
       <c r="TD1" s="1" t="inlineStr">
         <is>
-          <t>encouraged</t>
+          <t>instruction</t>
         </is>
       </c>
       <c r="TE1" s="1" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>kinesthetic</t>
         </is>
       </c>
       <c r="TF1" s="1" t="inlineStr">
         <is>
-          <t>subgroups</t>
+          <t>music</t>
         </is>
       </c>
       <c r="TG1" s="1" t="inlineStr">
         <is>
-          <t>self-esteem</t>
+          <t>musical</t>
         </is>
       </c>
       <c r="TH1" s="1" t="inlineStr">
         <is>
-          <t>self-regulation</t>
+          <t>order</t>
         </is>
       </c>
       <c r="TI1" s="1" t="inlineStr">
         <is>
-          <t>student-centered</t>
+          <t>part</t>
         </is>
       </c>
       <c r="TJ1" s="1" t="inlineStr">
         <is>
-          <t>speakers</t>
+          <t>participants</t>
         </is>
       </c>
       <c r="TK1" s="1" t="inlineStr">
         <is>
-          <t>serves</t>
+          <t>percussion</t>
         </is>
       </c>
       <c r="TL1" s="1" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>proficiency</t>
         </is>
       </c>
       <c r="TM1" s="1" t="inlineStr">
         <is>
-          <t>pre-post</t>
+          <t>pupils</t>
         </is>
       </c>
       <c r="TN1" s="1" t="inlineStr">
         <is>
-          <t>population</t>
+          <t>respective</t>
         </is>
       </c>
       <c r="TO1" s="1" t="inlineStr">
         <is>
-          <t>implementing</t>
+          <t>coping/reinforcing</t>
         </is>
       </c>
       <c r="TP1" s="1" t="inlineStr">
         <is>
-          <t>disabilities</t>
+          <t>rich</t>
         </is>
       </c>
       <c r="TQ1" s="1" t="inlineStr">
         <is>
-          <t>categories</t>
+          <t>sites</t>
         </is>
       </c>
       <c r="TR1" s="1" t="inlineStr">
         <is>
-          <t>differences</t>
+          <t>spatial</t>
         </is>
       </c>
       <c r="TS1" s="1" t="inlineStr">
         <is>
-          <t>coopersmith</t>
+          <t>specially</t>
         </is>
       </c>
       <c r="TT1" s="1" t="inlineStr">
         <is>
-          <t>placed</t>
+          <t>targeted</t>
         </is>
       </c>
       <c r="TU1" s="1" t="inlineStr">
         <is>
-          <t>english</t>
+          <t>impressive</t>
         </is>
       </c>
       <c r="TV1" s="1" t="inlineStr">
         <is>
-          <t>choices</t>
+          <t>intrinsically</t>
         </is>
       </c>
       <c r="TW1" s="1" t="inlineStr">
         <is>
-          <t>minorities</t>
+          <t>usefully</t>
         </is>
       </c>
       <c r="TX1" s="1" t="inlineStr">
         <is>
-          <t>limited</t>
+          <t>concepts</t>
         </is>
       </c>
       <c r="TY1" s="1" t="inlineStr">
         <is>
-          <t>inventory</t>
+          <t>comments</t>
         </is>
       </c>
       <c r="TZ1" s="1" t="inlineStr">
         <is>
+          <t>coefficients</t>
+        </is>
+      </c>
+      <c r="UA1" s="1" t="inlineStr">
+        <is>
+          <t>chosen</t>
+        </is>
+      </c>
+      <c r="UB1" s="1" t="inlineStr">
+        <is>
+          <t>become</t>
+        </is>
+      </c>
+      <c r="UC1" s="1" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="UD1" s="1" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="UE1" s="1" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="UF1" s="1" t="inlineStr">
+        <is>
+          <t>themes</t>
+        </is>
+      </c>
+      <c r="UG1" s="1" t="inlineStr">
+        <is>
+          <t>1985</t>
+        </is>
+      </c>
+      <c r="UH1" s="1" t="inlineStr">
+        <is>
+          <t>schooling</t>
+        </is>
+      </c>
+      <c r="UI1" s="1" t="inlineStr">
+        <is>
+          <t>remedial</t>
+        </is>
+      </c>
+      <c r="UJ1" s="1" t="inlineStr">
+        <is>
+          <t>reinforced</t>
+        </is>
+      </c>
+      <c r="UK1" s="1" t="inlineStr">
+        <is>
+          <t>reinforce</t>
+        </is>
+      </c>
+      <c r="UL1" s="1" t="inlineStr">
+        <is>
+          <t>qualitative</t>
+        </is>
+      </c>
+      <c r="UM1" s="1" t="inlineStr">
+        <is>
+          <t>professionals</t>
+        </is>
+      </c>
+      <c r="UN1" s="1" t="inlineStr">
+        <is>
+          <t>preparation</t>
+        </is>
+      </c>
+      <c r="UO1" s="1" t="inlineStr">
+        <is>
+          <t>planning</t>
+        </is>
+      </c>
+      <c r="UP1" s="1" t="inlineStr">
+        <is>
+          <t>mental</t>
+        </is>
+      </c>
+      <c r="UQ1" s="1" t="inlineStr">
+        <is>
+          <t>management</t>
+        </is>
+      </c>
+      <c r="UR1" s="1" t="inlineStr">
+        <is>
+          <t>comparisons</t>
+        </is>
+      </c>
+      <c r="US1" s="1" t="inlineStr">
+        <is>
+          <t>consequently</t>
+        </is>
+      </c>
+      <c r="UT1" s="1" t="inlineStr">
+        <is>
+          <t>shows</t>
+        </is>
+      </c>
+      <c r="UU1" s="1" t="inlineStr">
+        <is>
+          <t>correlation</t>
+        </is>
+      </c>
+      <c r="UV1" s="1" t="inlineStr">
+        <is>
+          <t>reanalyses</t>
+        </is>
+      </c>
+      <c r="UW1" s="1" t="inlineStr">
+        <is>
+          <t>really</t>
+        </is>
+      </c>
+      <c r="UX1" s="1" t="inlineStr">
+        <is>
+          <t>rather</t>
+        </is>
+      </c>
+      <c r="UY1" s="1" t="inlineStr">
+        <is>
+          <t>predictors</t>
+        </is>
+      </c>
+      <c r="UZ1" s="1" t="inlineStr">
+        <is>
+          <t>poor</t>
+        </is>
+      </c>
+      <c r="VA1" s="1" t="inlineStr">
+        <is>
+          <t>namely</t>
+        </is>
+      </c>
+      <c r="VB1" s="1" t="inlineStr">
+        <is>
+          <t>methodological</t>
+        </is>
+      </c>
+      <c r="VC1" s="1" t="inlineStr">
+        <is>
+          <t>method</t>
+        </is>
+      </c>
+      <c r="VD1" s="1" t="inlineStr">
+        <is>
+          <t>limitations</t>
+        </is>
+      </c>
+      <c r="VE1" s="1" t="inlineStr">
+        <is>
+          <t>invalidates</t>
+        </is>
+      </c>
+      <c r="VF1" s="1" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="VG1" s="1" t="inlineStr">
+        <is>
+          <t>independent</t>
+        </is>
+      </c>
+      <c r="VH1" s="1" t="inlineStr">
+        <is>
+          <t>argues</t>
+        </is>
+      </c>
+      <c r="VI1" s="1" t="inlineStr">
+        <is>
+          <t>flaw</t>
+        </is>
+      </c>
+      <c r="VJ1" s="1" t="inlineStr">
+        <is>
+          <t>examining</t>
+        </is>
+      </c>
+      <c r="VK1" s="1" t="inlineStr">
+        <is>
+          <t>detectors</t>
+        </is>
+      </c>
+      <c r="VL1" s="1" t="inlineStr">
+        <is>
+          <t>cutoff</t>
+        </is>
+      </c>
+      <c r="VM1" s="1" t="inlineStr">
+        <is>
+          <t>criterion-related</t>
+        </is>
+      </c>
+      <c r="VN1" s="1" t="inlineStr">
+        <is>
+          <t>criterion</t>
+        </is>
+      </c>
+      <c r="VO1" s="1" t="inlineStr">
+        <is>
+          <t>imprints</t>
+        </is>
+      </c>
+      <c r="VP1" s="1" t="inlineStr">
+        <is>
+          <t>images</t>
+        </is>
+      </c>
+      <c r="VQ1" s="1" t="inlineStr">
+        <is>
+          <t>formidable</t>
+        </is>
+      </c>
+      <c r="VR1" s="1" t="inlineStr">
+        <is>
+          <t>first</t>
+        </is>
+      </c>
+      <c r="VS1" s="1" t="inlineStr">
+        <is>
+          <t>must</t>
+        </is>
+      </c>
+      <c r="VT1" s="1" t="inlineStr">
+        <is>
+          <t>issue</t>
+        </is>
+      </c>
+      <c r="VU1" s="1" t="inlineStr">
+        <is>
+          <t>individual</t>
+        </is>
+      </c>
+      <c r="VV1" s="1" t="inlineStr">
+        <is>
+          <t>ideology</t>
+        </is>
+      </c>
+      <c r="VW1" s="1" t="inlineStr">
+        <is>
+          <t>hypothesis</t>
+        </is>
+      </c>
+      <c r="VX1" s="1" t="inlineStr">
+        <is>
+          <t>headings</t>
+        </is>
+      </c>
+      <c r="VY1" s="1" t="inlineStr">
+        <is>
+          <t>ethno-cultural</t>
+        </is>
+      </c>
+      <c r="VZ1" s="1" t="inlineStr">
+        <is>
+          <t>either</t>
+        </is>
+      </c>
+      <c r="WA1" s="1" t="inlineStr">
+        <is>
+          <t>discussions</t>
+        </is>
+      </c>
+      <c r="WB1" s="1" t="inlineStr">
+        <is>
+          <t>definition</t>
+        </is>
+      </c>
+      <c r="WC1" s="1" t="inlineStr">
+        <is>
+          <t>controversies</t>
+        </is>
+      </c>
+      <c r="WD1" s="1" t="inlineStr">
+        <is>
+          <t>concerning</t>
+        </is>
+      </c>
+      <c r="WE1" s="1" t="inlineStr">
+        <is>
+          <t>classified</t>
+        </is>
+      </c>
+      <c r="WF1" s="1" t="inlineStr">
+        <is>
+          <t>central</t>
+        </is>
+      </c>
+      <c r="WG1" s="1" t="inlineStr">
+        <is>
+          <t>categorized</t>
+        </is>
+      </c>
+      <c r="WH1" s="1" t="inlineStr">
+        <is>
+          <t>basic</t>
+        </is>
+      </c>
+      <c r="WI1" s="1" t="inlineStr">
+        <is>
+          <t>according</t>
+        </is>
+      </c>
+      <c r="WJ1" s="1" t="inlineStr">
+        <is>
+          <t>backgrounds</t>
+        </is>
+      </c>
+      <c r="WK1" s="1" t="inlineStr">
+        <is>
+          <t>attention</t>
+        </is>
+      </c>
+      <c r="WL1" s="1" t="inlineStr">
+        <is>
+          <t>pay</t>
+        </is>
+      </c>
+      <c r="WM1" s="1" t="inlineStr">
+        <is>
+          <t>practitioners</t>
+        </is>
+      </c>
+      <c r="WN1" s="1" t="inlineStr">
+        <is>
+          <t>productive</t>
+        </is>
+      </c>
+      <c r="WO1" s="1" t="inlineStr">
+        <is>
+          <t>competent</t>
+        </is>
+      </c>
+      <c r="WP1" s="1" t="inlineStr">
+        <is>
+          <t>face</t>
+        </is>
+      </c>
+      <c r="WQ1" s="1" t="inlineStr">
+        <is>
+          <t>enter</t>
+        </is>
+      </c>
+      <c r="WR1" s="1" t="inlineStr">
+        <is>
+          <t>discourage</t>
+        </is>
+      </c>
+      <c r="WS1" s="1" t="inlineStr">
+        <is>
+          <t>circumstances</t>
+        </is>
+      </c>
+      <c r="WT1" s="1" t="inlineStr">
+        <is>
+          <t>bring</t>
+        </is>
+      </c>
+      <c r="WU1" s="1" t="inlineStr">
+        <is>
+          <t>apprenticeship</t>
+        </is>
+      </c>
+      <c r="WV1" s="1" t="inlineStr">
+        <is>
+          <t>addressing</t>
+        </is>
+      </c>
+      <c r="WW1" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="WX1" s="1" t="inlineStr">
+        <is>
+          <t>deci</t>
+        </is>
+      </c>
+      <c r="WY1" s="1" t="inlineStr">
+        <is>
+          <t>future</t>
+        </is>
+      </c>
+      <c r="WZ1" s="1" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+      <c r="XA1" s="1" t="inlineStr">
+        <is>
+          <t>french-canadian</t>
+        </is>
+      </c>
+      <c r="XB1" s="1" t="inlineStr">
+        <is>
+          <t>versus</t>
+        </is>
+      </c>
+      <c r="XC1" s="1" t="inlineStr">
+        <is>
+          <t>societal</t>
+        </is>
+      </c>
+      <c r="XD1" s="1" t="inlineStr">
+        <is>
+          <t>seven</t>
+        </is>
+      </c>
+      <c r="XE1" s="1" t="inlineStr">
+        <is>
+          <t>screening</t>
+        </is>
+      </c>
+      <c r="XF1" s="1" t="inlineStr">
+        <is>
+          <t>researchers</t>
+        </is>
+      </c>
+      <c r="XG1" s="1" t="inlineStr">
+        <is>
+          <t>regarding</t>
+        </is>
+      </c>
+      <c r="XH1" s="1" t="inlineStr">
+        <is>
+          <t>relied</t>
+        </is>
+      </c>
+      <c r="XI1" s="1" t="inlineStr">
+        <is>
+          <t>implement</t>
+        </is>
+      </c>
+      <c r="XJ1" s="1" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="XK1" s="1" t="inlineStr">
+        <is>
+          <t>investigation</t>
+        </is>
+      </c>
+      <c r="XL1" s="1" t="inlineStr">
+        <is>
+          <t>multifaceted</t>
+        </is>
+      </c>
+      <c r="XM1" s="1" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="XN1" s="1" t="inlineStr">
+        <is>
+          <t>varying</t>
+        </is>
+      </c>
+      <c r="XO1" s="1" t="inlineStr">
+        <is>
+          <t>unidimensional</t>
+        </is>
+      </c>
+      <c r="XP1" s="1" t="inlineStr">
+        <is>
+          <t>tailoring</t>
+        </is>
+      </c>
+      <c r="XQ1" s="1" t="inlineStr">
+        <is>
+          <t>noted</t>
+        </is>
+      </c>
+      <c r="XR1" s="1" t="inlineStr">
+        <is>
+          <t>statuses</t>
+        </is>
+      </c>
+      <c r="XS1" s="1" t="inlineStr">
+        <is>
+          <t>singled</t>
+        </is>
+      </c>
+      <c r="XT1" s="1" t="inlineStr">
+        <is>
+          <t>motivated</t>
+        </is>
+      </c>
+      <c r="XU1" s="1" t="inlineStr">
+        <is>
+          <t>p.</t>
+        </is>
+      </c>
+      <c r="XV1" s="1" t="inlineStr">
+        <is>
+          <t>show</t>
+        </is>
+      </c>
+      <c r="XW1" s="1" t="inlineStr">
+        <is>
+          <t>scoring</t>
+        </is>
+      </c>
+      <c r="XX1" s="1" t="inlineStr">
+        <is>
+          <t>scheme</t>
+        </is>
+      </c>
+      <c r="XY1" s="1" t="inlineStr">
+        <is>
+          <t>roles</t>
+        </is>
+      </c>
+      <c r="XZ1" s="1" t="inlineStr">
+        <is>
+          <t>gender</t>
+        </is>
+      </c>
+      <c r="YA1" s="1" t="inlineStr">
+        <is>
+          <t>replication</t>
+        </is>
+      </c>
+      <c r="YB1" s="1" t="inlineStr">
+        <is>
+          <t>realize</t>
+        </is>
+      </c>
+      <c r="YC1" s="1" t="inlineStr">
+        <is>
+          <t>labels</t>
+        </is>
+      </c>
+      <c r="YD1" s="1" t="inlineStr">
+        <is>
+          <t>individuals</t>
+        </is>
+      </c>
+      <c r="YE1" s="1" t="inlineStr">
+        <is>
+          <t>questionnaire</t>
+        </is>
+      </c>
+      <c r="YF1" s="1" t="inlineStr">
+        <is>
+          <t>harter</t>
+        </is>
+      </c>
+      <c r="YG1" s="1" t="inlineStr">
+        <is>
+          <t>realm</t>
+        </is>
+      </c>
+      <c r="YH1" s="1" t="inlineStr">
+        <is>
+          <t>intrinsic/extrinsic</t>
+        </is>
+      </c>
+      <c r="YI1" s="1" t="inlineStr">
+        <is>
+          <t>ryan</t>
+        </is>
+      </c>
+      <c r="YJ1" s="1" t="inlineStr">
+        <is>
           <t>support</t>
         </is>
       </c>
-      <c r="UA1" s="1" t="inlineStr">
-        <is>
-          <t>1985</t>
-        </is>
-      </c>
-      <c r="UB1" s="1" t="inlineStr">
-        <is>
-          <t>took</t>
-        </is>
-      </c>
-      <c r="UC1" s="1" t="inlineStr">
-        <is>
-          <t>realm</t>
-        </is>
-      </c>
-      <c r="UD1" s="1" t="inlineStr">
-        <is>
-          <t>teams</t>
-        </is>
-      </c>
-      <c r="UE1" s="1" t="inlineStr">
-        <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="UF1" s="1" t="inlineStr">
-        <is>
-          <t>targeted</t>
-        </is>
-      </c>
-      <c r="UG1" s="1" t="inlineStr">
-        <is>
-          <t>sites</t>
-        </is>
-      </c>
-      <c r="UH1" s="1" t="inlineStr">
-        <is>
-          <t>respective</t>
-        </is>
-      </c>
-      <c r="UI1" s="1" t="inlineStr">
-        <is>
-          <t>specially</t>
-        </is>
-      </c>
-      <c r="UJ1" s="1" t="inlineStr">
-        <is>
-          <t>rich</t>
-        </is>
-      </c>
-      <c r="UK1" s="1" t="inlineStr">
-        <is>
-          <t>deci</t>
-        </is>
-      </c>
-      <c r="UL1" s="1" t="inlineStr">
-        <is>
-          <t>spatial</t>
-        </is>
-      </c>
-      <c r="UM1" s="1" t="inlineStr">
-        <is>
-          <t>ryan</t>
-        </is>
-      </c>
-      <c r="UN1" s="1" t="inlineStr">
-        <is>
-          <t>pupils</t>
-        </is>
-      </c>
-      <c r="UO1" s="1" t="inlineStr">
-        <is>
-          <t>kinesthetic</t>
-        </is>
-      </c>
-      <c r="UP1" s="1" t="inlineStr">
-        <is>
-          <t>proficiency</t>
-        </is>
-      </c>
-      <c r="UQ1" s="1" t="inlineStr">
-        <is>
-          <t>efforts</t>
-        </is>
-      </c>
-      <c r="UR1" s="1" t="inlineStr">
-        <is>
-          <t>all</t>
-        </is>
-      </c>
-      <c r="US1" s="1" t="inlineStr">
-        <is>
-          <t>artists</t>
-        </is>
-      </c>
-      <c r="UT1" s="1" t="inlineStr">
-        <is>
-          <t>unveiling</t>
-        </is>
-      </c>
-      <c r="UU1" s="1" t="inlineStr">
-        <is>
-          <t>attending</t>
-        </is>
-      </c>
-      <c r="UV1" s="1" t="inlineStr">
-        <is>
-          <t>audition</t>
-        </is>
-      </c>
-      <c r="UW1" s="1" t="inlineStr">
-        <is>
-          <t>city</t>
-        </is>
-      </c>
-      <c r="UX1" s="1" t="inlineStr">
-        <is>
-          <t>curricula</t>
-        </is>
-      </c>
-      <c r="UY1" s="1" t="inlineStr">
-        <is>
-          <t>dance</t>
-        </is>
-      </c>
-      <c r="UZ1" s="1" t="inlineStr">
-        <is>
-          <t>demanding</t>
-        </is>
-      </c>
-      <c r="VA1" s="1" t="inlineStr">
-        <is>
-          <t>disciplined</t>
-        </is>
-      </c>
-      <c r="VB1" s="1" t="inlineStr">
-        <is>
-          <t>educators</t>
-        </is>
-      </c>
-      <c r="VC1" s="1" t="inlineStr">
-        <is>
-          <t>elementary-aged</t>
-        </is>
-      </c>
-      <c r="VD1" s="1" t="inlineStr">
-        <is>
-          <t>percussion</t>
-        </is>
-      </c>
-      <c r="VE1" s="1" t="inlineStr">
-        <is>
-          <t>esteem</t>
-        </is>
-      </c>
-      <c r="VF1" s="1" t="inlineStr">
-        <is>
-          <t>expressive</t>
-        </is>
-      </c>
-      <c r="VG1" s="1" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="VH1" s="1" t="inlineStr">
-        <is>
-          <t>impressive</t>
-        </is>
-      </c>
-      <c r="VI1" s="1" t="inlineStr">
-        <is>
-          <t>inner</t>
-        </is>
-      </c>
-      <c r="VJ1" s="1" t="inlineStr">
-        <is>
-          <t>instruction</t>
-        </is>
-      </c>
-      <c r="VK1" s="1" t="inlineStr">
-        <is>
-          <t>music</t>
-        </is>
-      </c>
-      <c r="VL1" s="1" t="inlineStr">
-        <is>
-          <t>musical</t>
-        </is>
-      </c>
-      <c r="VM1" s="1" t="inlineStr">
-        <is>
-          <t>order</t>
-        </is>
-      </c>
-      <c r="VN1" s="1" t="inlineStr">
-        <is>
-          <t>part</t>
-        </is>
-      </c>
-      <c r="VO1" s="1" t="inlineStr">
-        <is>
-          <t>participants</t>
-        </is>
-      </c>
-      <c r="VP1" s="1" t="inlineStr">
-        <is>
-          <t>weeks</t>
-        </is>
-      </c>
-      <c r="VQ1" s="1" t="inlineStr">
-        <is>
-          <t>become</t>
-        </is>
-      </c>
-      <c r="VR1" s="1" t="inlineStr">
-        <is>
-          <t>coping/reinforcing</t>
-        </is>
-      </c>
-      <c r="VS1" s="1" t="inlineStr">
+      <c r="YK1" s="1" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="YL1" s="1" t="inlineStr">
+        <is>
+          <t>al</t>
+        </is>
+      </c>
+      <c r="YM1" s="1" t="inlineStr">
+        <is>
+          <t>almost</t>
+        </is>
+      </c>
+      <c r="YN1" s="1" t="inlineStr">
+        <is>
+          <t>areas</t>
+        </is>
+      </c>
+      <c r="YO1" s="1" t="inlineStr">
+        <is>
+          <t>aspects</t>
+        </is>
+      </c>
+      <c r="YP1" s="1" t="inlineStr">
+        <is>
+          <t>assessed</t>
+        </is>
+      </c>
+      <c r="YQ1" s="1" t="inlineStr">
+        <is>
+          <t>attitudes</t>
+        </is>
+      </c>
+      <c r="YR1" s="1" t="inlineStr">
+        <is>
+          <t>colangelo</t>
+        </is>
+      </c>
+      <c r="YS1" s="1" t="inlineStr">
+        <is>
+          <t>coming</t>
+        </is>
+      </c>
+      <c r="YT1" s="1" t="inlineStr">
+        <is>
+          <t>et</t>
+        </is>
+      </c>
+      <c r="YU1" s="1" t="inlineStr">
+        <is>
+          <t>expanding</t>
+        </is>
+      </c>
+      <c r="YV1" s="1" t="inlineStr">
+        <is>
+          <t>experiences</t>
+        </is>
+      </c>
+      <c r="YW1" s="1" t="inlineStr">
+        <is>
+          <t>gaeth</t>
+        </is>
+      </c>
+      <c r="YX1" s="1" t="inlineStr">
+        <is>
+          <t>reactions</t>
+        </is>
+      </c>
+      <c r="YY1" s="1" t="inlineStr">
+        <is>
+          <t>open-ended</t>
+        </is>
+      </c>
+      <c r="YZ1" s="1" t="inlineStr">
+        <is>
+          <t>argued</t>
+        </is>
+      </c>
+      <c r="ZA1" s="1" t="inlineStr">
+        <is>
+          <t>procedure</t>
+        </is>
+      </c>
+      <c r="ZB1" s="1" t="inlineStr">
+        <is>
+          <t>modify</t>
+        </is>
+      </c>
+      <c r="ZC1" s="1" t="inlineStr">
+        <is>
+          <t>mastered</t>
+        </is>
+      </c>
+      <c r="ZD1" s="1" t="inlineStr">
+        <is>
+          <t>majority</t>
+        </is>
+      </c>
+      <c r="ZE1" s="1" t="inlineStr">
+        <is>
+          <t>highest</t>
+        </is>
+      </c>
+      <c r="ZF1" s="1" t="inlineStr">
+        <is>
+          <t>guskey</t>
+        </is>
+      </c>
+      <c r="ZG1" s="1" t="inlineStr">
+        <is>
+          <t>forms</t>
+        </is>
+      </c>
+      <c r="ZH1" s="1" t="inlineStr">
+        <is>
+          <t>enthusiastic</t>
+        </is>
+      </c>
+      <c r="ZI1" s="1" t="inlineStr">
+        <is>
+          <t>enables</t>
+        </is>
+      </c>
+      <c r="ZJ1" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="ZK1" s="1" t="inlineStr">
+        <is>
+          <t>content</t>
+        </is>
+      </c>
+      <c r="ZL1" s="1" t="inlineStr">
+        <is>
+          <t>compactor</t>
+        </is>
+      </c>
+      <c r="ZM1" s="1" t="inlineStr">
         <is>
           <t>challenging</t>
         </is>
       </c>
-      <c r="VT1" s="1" t="inlineStr">
-        <is>
-          <t>themes</t>
-        </is>
-      </c>
-      <c r="VU1" s="1" t="inlineStr">
-        <is>
-          <t>competent</t>
-        </is>
-      </c>
-      <c r="VV1" s="1" t="inlineStr">
-        <is>
-          <t>country</t>
-        </is>
-      </c>
-      <c r="VW1" s="1" t="inlineStr">
-        <is>
-          <t>content</t>
-        </is>
-      </c>
-      <c r="VX1" s="1" t="inlineStr">
-        <is>
-          <t>compactor</t>
-        </is>
-      </c>
-      <c r="VY1" s="1" t="inlineStr">
-        <is>
-          <t>time</t>
-        </is>
-      </c>
-      <c r="VZ1" s="1" t="inlineStr">
+      <c r="ZN1" s="1" t="inlineStr">
         <is>
           <t>called</t>
         </is>
       </c>
-      <c r="WA1" s="1" t="inlineStr">
-        <is>
-          <t>schooling</t>
-        </is>
-      </c>
-      <c r="WB1" s="1" t="inlineStr">
+      <c r="ZO1" s="1" t="inlineStr">
         <is>
           <t>assigned</t>
         </is>
       </c>
-      <c r="WC1" s="1" t="inlineStr">
+      <c r="ZP1" s="1" t="inlineStr">
         <is>
           <t>alternatives</t>
         </is>
       </c>
-      <c r="WD1" s="1" t="inlineStr">
+      <c r="ZQ1" s="1" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="ZR1" s="1" t="inlineStr">
         <is>
           <t>across</t>
         </is>
       </c>
-      <c r="WE1" s="1" t="inlineStr">
+      <c r="ZS1" s="1" t="inlineStr">
+        <is>
+          <t>modifying</t>
+        </is>
+      </c>
+      <c r="ZT1" s="1" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="ZU1" s="1" t="inlineStr">
+        <is>
+          <t>randomly</t>
+        </is>
+      </c>
+      <c r="ZV1" s="1" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+      <c r="ZW1" s="1" t="inlineStr">
+        <is>
+          <t>partial</t>
+        </is>
+      </c>
+      <c r="ZX1" s="1" t="inlineStr">
+        <is>
+          <t>technical</t>
+        </is>
+      </c>
+      <c r="ZY1" s="1" t="inlineStr">
+        <is>
+          <t>usually</t>
+        </is>
+      </c>
+      <c r="ZZ1" s="1" t="inlineStr">
+        <is>
+          <t>validity</t>
+        </is>
+      </c>
+      <c r="AAA1" s="1" t="inlineStr">
+        <is>
+          <t>upon</t>
+        </is>
+      </c>
+      <c r="AAB1" s="1" t="inlineStr">
         <is>
           <t>able</t>
         </is>
       </c>
-      <c r="WF1" s="1" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="WG1" s="1" t="inlineStr">
-        <is>
-          <t>traditional</t>
-        </is>
-      </c>
-      <c r="WH1" s="1" t="inlineStr">
-        <is>
-          <t>end</t>
-        </is>
-      </c>
-      <c r="WI1" s="1" t="inlineStr">
-        <is>
-          <t>enables</t>
-        </is>
-      </c>
-      <c r="WJ1" s="1" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
-      </c>
-      <c r="WK1" s="1" t="inlineStr">
-        <is>
-          <t>reinforce</t>
-        </is>
-      </c>
-      <c r="WL1" s="1" t="inlineStr">
-        <is>
-          <t>french-canadian</t>
-        </is>
-      </c>
-      <c r="WM1" s="1" t="inlineStr">
-        <is>
-          <t>professionals</t>
-        </is>
-      </c>
-      <c r="WN1" s="1" t="inlineStr">
-        <is>
-          <t>procedure</t>
-        </is>
-      </c>
-      <c r="WO1" s="1" t="inlineStr">
-        <is>
-          <t>qualitative</t>
-        </is>
-      </c>
-      <c r="WP1" s="1" t="inlineStr">
-        <is>
-          <t>modifying</t>
-        </is>
-      </c>
-      <c r="WQ1" s="1" t="inlineStr">
-        <is>
-          <t>modify</t>
-        </is>
-      </c>
-      <c r="WR1" s="1" t="inlineStr">
-        <is>
-          <t>mastered</t>
-        </is>
-      </c>
-      <c r="WS1" s="1" t="inlineStr">
-        <is>
-          <t>enthusiastic</t>
-        </is>
-      </c>
-      <c r="WT1" s="1" t="inlineStr">
-        <is>
-          <t>majority</t>
-        </is>
-      </c>
-      <c r="WU1" s="1" t="inlineStr">
-        <is>
-          <t>reinforced</t>
-        </is>
-      </c>
-      <c r="WV1" s="1" t="inlineStr">
-        <is>
-          <t>remedial</t>
-        </is>
-      </c>
-      <c r="WW1" s="1" t="inlineStr">
-        <is>
-          <t>highest</t>
-        </is>
-      </c>
-      <c r="WX1" s="1" t="inlineStr">
-        <is>
-          <t>guskey</t>
-        </is>
-      </c>
-      <c r="WY1" s="1" t="inlineStr">
-        <is>
-          <t>forms</t>
-        </is>
-      </c>
-      <c r="WZ1" s="1" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="XA1" s="1" t="inlineStr">
-        <is>
-          <t>validity</t>
-        </is>
-      </c>
-      <c r="XB1" s="1" t="inlineStr">
-        <is>
-          <t>preparation</t>
-        </is>
-      </c>
-      <c r="XC1" s="1" t="inlineStr">
-        <is>
-          <t>criterion</t>
-        </is>
-      </c>
-      <c r="XD1" s="1" t="inlineStr">
-        <is>
-          <t>implement</t>
-        </is>
-      </c>
-      <c r="XE1" s="1" t="inlineStr">
-        <is>
-          <t>flaw</t>
-        </is>
-      </c>
-      <c r="XF1" s="1" t="inlineStr">
-        <is>
-          <t>examining</t>
-        </is>
-      </c>
-      <c r="XG1" s="1" t="inlineStr">
-        <is>
-          <t>detectors</t>
-        </is>
-      </c>
-      <c r="XH1" s="1" t="inlineStr">
-        <is>
-          <t>cutoff</t>
-        </is>
-      </c>
-      <c r="XI1" s="1" t="inlineStr">
-        <is>
-          <t>criterion-related</t>
-        </is>
-      </c>
-      <c r="XJ1" s="1" t="inlineStr">
-        <is>
-          <t>correlation</t>
-        </is>
-      </c>
-      <c r="XK1" s="1" t="inlineStr">
-        <is>
-          <t>invalid</t>
-        </is>
-      </c>
-      <c r="XL1" s="1" t="inlineStr">
-        <is>
-          <t>consequently</t>
-        </is>
-      </c>
-      <c r="XM1" s="1" t="inlineStr">
-        <is>
-          <t>concepts</t>
-        </is>
-      </c>
-      <c r="XN1" s="1" t="inlineStr">
-        <is>
-          <t>comparisons</t>
-        </is>
-      </c>
-      <c r="XO1" s="1" t="inlineStr">
-        <is>
-          <t>comments</t>
-        </is>
-      </c>
-      <c r="XP1" s="1" t="inlineStr">
-        <is>
-          <t>coefficients</t>
-        </is>
-      </c>
-      <c r="XQ1" s="1" t="inlineStr">
-        <is>
-          <t>chosen</t>
-        </is>
-      </c>
-      <c r="XR1" s="1" t="inlineStr">
-        <is>
-          <t>independent</t>
-        </is>
-      </c>
-      <c r="XS1" s="1" t="inlineStr">
-        <is>
-          <t>invalidates</t>
-        </is>
-      </c>
-      <c r="XT1" s="1" t="inlineStr">
-        <is>
-          <t>usually</t>
-        </is>
-      </c>
-      <c r="XU1" s="1" t="inlineStr">
-        <is>
-          <t>reanalyses</t>
-        </is>
-      </c>
-      <c r="XV1" s="1" t="inlineStr">
-        <is>
-          <t>upon</t>
-        </is>
-      </c>
-      <c r="XW1" s="1" t="inlineStr">
-        <is>
-          <t>technical</t>
-        </is>
-      </c>
-      <c r="XX1" s="1" t="inlineStr">
-        <is>
-          <t>singled</t>
-        </is>
-      </c>
-      <c r="XY1" s="1" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="XZ1" s="1" t="inlineStr">
-        <is>
-          <t>shows</t>
-        </is>
-      </c>
-      <c r="YA1" s="1" t="inlineStr">
-        <is>
-          <t>relied</t>
-        </is>
-      </c>
-      <c r="YB1" s="1" t="inlineStr">
-        <is>
-          <t>really</t>
-        </is>
-      </c>
-      <c r="YC1" s="1" t="inlineStr">
-        <is>
-          <t>limitations</t>
-        </is>
-      </c>
-      <c r="YD1" s="1" t="inlineStr">
-        <is>
-          <t>rather</t>
-        </is>
-      </c>
-      <c r="YE1" s="1" t="inlineStr">
-        <is>
-          <t>predictors</t>
-        </is>
-      </c>
-      <c r="YF1" s="1" t="inlineStr">
-        <is>
-          <t>poor</t>
-        </is>
-      </c>
-      <c r="YG1" s="1" t="inlineStr">
-        <is>
-          <t>namely</t>
-        </is>
-      </c>
-      <c r="YH1" s="1" t="inlineStr">
-        <is>
-          <t>methodological</t>
-        </is>
-      </c>
-      <c r="YI1" s="1" t="inlineStr">
-        <is>
-          <t>method</t>
-        </is>
-      </c>
-      <c r="YJ1" s="1" t="inlineStr">
-        <is>
-          <t>randomly</t>
-        </is>
-      </c>
-      <c r="YK1" s="1" t="inlineStr">
+      <c r="AAC1" s="1" t="inlineStr">
+        <is>
+          <t>substitute</t>
+        </is>
+      </c>
+      <c r="AAD1" s="1" t="inlineStr">
+        <is>
+          <t>staff-development</t>
+        </is>
+      </c>
+      <c r="AAE1" s="1" t="inlineStr">
         <is>
           <t>rated</t>
         </is>
       </c>
-      <c r="YL1" s="1" t="inlineStr">
+      <c r="AAF1" s="1" t="inlineStr">
         <is>
           <t>receiving</t>
         </is>
       </c>
-      <c r="YM1" s="1" t="inlineStr">
-        <is>
-          <t>al</t>
-        </is>
-      </c>
-      <c r="YN1" s="1" t="inlineStr">
-        <is>
-          <t>discourage</t>
-        </is>
-      </c>
-      <c r="YO1" s="1" t="inlineStr">
-        <is>
-          <t>circumstances</t>
-        </is>
-      </c>
-      <c r="YP1" s="1" t="inlineStr">
-        <is>
-          <t>p.</t>
-        </is>
-      </c>
-      <c r="YQ1" s="1" t="inlineStr">
-        <is>
-          <t>partial</t>
-        </is>
-      </c>
-      <c r="YR1" s="1" t="inlineStr">
-        <is>
-          <t>bring</t>
-        </is>
-      </c>
-      <c r="YS1" s="1" t="inlineStr">
-        <is>
-          <t>questionnaire</t>
-        </is>
-      </c>
-      <c r="YT1" s="1" t="inlineStr">
-        <is>
-          <t>addressing</t>
-        </is>
-      </c>
-      <c r="YU1" s="1" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="YV1" s="1" t="inlineStr">
-        <is>
-          <t>reactions</t>
-        </is>
-      </c>
-      <c r="YW1" s="1" t="inlineStr">
-        <is>
-          <t>future</t>
-        </is>
-      </c>
-      <c r="YX1" s="1" t="inlineStr">
-        <is>
-          <t>realize</t>
-        </is>
-      </c>
-      <c r="YY1" s="1" t="inlineStr">
-        <is>
-          <t>replication</t>
-        </is>
-      </c>
-      <c r="YZ1" s="1" t="inlineStr">
-        <is>
-          <t>gender</t>
-        </is>
-      </c>
-      <c r="ZA1" s="1" t="inlineStr">
-        <is>
-          <t>noted</t>
-        </is>
-      </c>
-      <c r="ZB1" s="1" t="inlineStr">
-        <is>
-          <t>harter</t>
-        </is>
-      </c>
-      <c r="ZC1" s="1" t="inlineStr">
-        <is>
-          <t>scheme</t>
-        </is>
-      </c>
-      <c r="ZD1" s="1" t="inlineStr">
-        <is>
-          <t>scoring</t>
-        </is>
-      </c>
-      <c r="ZE1" s="1" t="inlineStr">
-        <is>
-          <t>show</t>
-        </is>
-      </c>
-      <c r="ZF1" s="1" t="inlineStr">
-        <is>
-          <t>statuses</t>
-        </is>
-      </c>
-      <c r="ZG1" s="1" t="inlineStr">
-        <is>
-          <t>intrinsic/extrinsic</t>
-        </is>
-      </c>
-      <c r="ZH1" s="1" t="inlineStr">
-        <is>
-          <t>tailoring</t>
-        </is>
-      </c>
-      <c r="ZI1" s="1" t="inlineStr">
-        <is>
-          <t>unidimensional</t>
-        </is>
-      </c>
-      <c r="ZJ1" s="1" t="inlineStr">
-        <is>
-          <t>varying</t>
-        </is>
-      </c>
-      <c r="ZK1" s="1" t="inlineStr">
-        <is>
-          <t>intrinsically</t>
-        </is>
-      </c>
-      <c r="ZL1" s="1" t="inlineStr">
-        <is>
-          <t>245</t>
-        </is>
-      </c>
-      <c r="ZM1" s="1" t="inlineStr">
-        <is>
-          <t>motivated</t>
-        </is>
-      </c>
-      <c r="ZN1" s="1" t="inlineStr">
-        <is>
-          <t>open-ended</t>
-        </is>
-      </c>
-      <c r="ZO1" s="1" t="inlineStr">
-        <is>
-          <t>apprenticeship</t>
-        </is>
-      </c>
-      <c r="ZP1" s="1" t="inlineStr">
-        <is>
-          <t>enter</t>
-        </is>
-      </c>
-      <c r="ZQ1" s="1" t="inlineStr">
-        <is>
-          <t>images</t>
-        </is>
-      </c>
-      <c r="ZR1" s="1" t="inlineStr">
-        <is>
-          <t>staff-development</t>
-        </is>
-      </c>
-      <c r="ZS1" s="1" t="inlineStr">
-        <is>
-          <t>substitute</t>
-        </is>
-      </c>
-      <c r="ZT1" s="1" t="inlineStr">
-        <is>
-          <t>planning</t>
-        </is>
-      </c>
-      <c r="ZU1" s="1" t="inlineStr">
-        <is>
-          <t>mental</t>
-        </is>
-      </c>
-      <c r="ZV1" s="1" t="inlineStr">
-        <is>
-          <t>almost</t>
-        </is>
-      </c>
-      <c r="ZW1" s="1" t="inlineStr">
-        <is>
-          <t>areas</t>
-        </is>
-      </c>
-      <c r="ZX1" s="1" t="inlineStr">
-        <is>
-          <t>management</t>
-        </is>
-      </c>
-      <c r="ZY1" s="1" t="inlineStr">
-        <is>
-          <t>aspects</t>
-        </is>
-      </c>
-      <c r="ZZ1" s="1" t="inlineStr">
-        <is>
-          <t>assessed</t>
-        </is>
-      </c>
-      <c r="AAA1" s="1" t="inlineStr">
-        <is>
-          <t>attitudes</t>
-        </is>
-      </c>
-      <c r="AAB1" s="1" t="inlineStr">
-        <is>
-          <t>colangelo</t>
-        </is>
-      </c>
-      <c r="AAC1" s="1" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
-      </c>
-      <c r="AAD1" s="1" t="inlineStr">
-        <is>
-          <t>et</t>
-        </is>
-      </c>
-      <c r="AAE1" s="1" t="inlineStr">
-        <is>
-          <t>imprints</t>
-        </is>
-      </c>
-      <c r="AAF1" s="1" t="inlineStr">
-        <is>
-          <t>coming</t>
-        </is>
-      </c>
       <c r="AAG1" s="1" t="inlineStr">
         <is>
-          <t>individuals</t>
+          <t>reanalyzed</t>
         </is>
       </c>
       <c r="AAH1" s="1" t="inlineStr">
         <is>
-          <t>gaeth</t>
+          <t>omitted</t>
         </is>
       </c>
       <c r="AAI1" s="1" t="inlineStr">
         <is>
-          <t>face</t>
+          <t>states</t>
         </is>
       </c>
       <c r="AAJ1" s="1" t="inlineStr">
         <is>
-          <t>multifaceted</t>
+          <t>suit</t>
         </is>
       </c>
       <c r="AAK1" s="1" t="inlineStr">
         <is>
-          <t>first</t>
+          <t>outperform</t>
         </is>
       </c>
       <c r="AAL1" s="1" t="inlineStr">
         <is>
-          <t>labels</t>
+          <t>problems</t>
         </is>
       </c>
       <c r="AAM1" s="1" t="inlineStr">
         <is>
-          <t>formidable</t>
+          <t>reanalysis</t>
         </is>
       </c>
       <c r="AAN1" s="1" t="inlineStr">
         <is>
-          <t>investigation</t>
+          <t>therefore</t>
         </is>
       </c>
       <c r="AAO1" s="1" t="inlineStr">
         <is>
-          <t>expanding</t>
+          <t>traditionally</t>
         </is>
       </c>
       <c r="AAP1" s="1" t="inlineStr">
         <is>
-          <t>roles</t>
+          <t>sets</t>
         </is>
       </c>
       <c r="AAQ1" s="1" t="inlineStr">
         <is>
-          <t>experiences</t>
+          <t>strength</t>
         </is>
       </c>
       <c r="AAR1" s="1" t="inlineStr">
         <is>
+          <t>supplemented</t>
+        </is>
+      </c>
+      <c r="AAS1" s="1" t="inlineStr">
+        <is>
+          <t>superior</t>
+        </is>
+      </c>
+      <c r="AAT1" s="1" t="inlineStr">
+        <is>
+          <t>nongifted</t>
+        </is>
+      </c>
+      <c r="AAU1" s="1" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="AAV1" s="1" t="inlineStr">
+        <is>
+          <t>useful</t>
+        </is>
+      </c>
+      <c r="AAW1" s="1" t="inlineStr">
+        <is>
+          <t>reasons</t>
+        </is>
+      </c>
+      <c r="AAX1" s="1" t="inlineStr">
+        <is>
+          <t>drop</t>
+        </is>
+      </c>
+      <c r="AAY1" s="1" t="inlineStr">
+        <is>
+          <t>never</t>
+        </is>
+      </c>
+      <c r="AAZ1" s="1" t="inlineStr">
+        <is>
+          <t>developmentally</t>
+        </is>
+      </c>
+      <c r="ABA1" s="1" t="inlineStr">
+        <is>
+          <t>defined</t>
+        </is>
+      </c>
+      <c r="ABB1" s="1" t="inlineStr">
+        <is>
+          <t>combination</t>
+        </is>
+      </c>
+      <c r="ABC1" s="1" t="inlineStr">
+        <is>
+          <t>exclude</t>
+        </is>
+      </c>
+      <c r="ABD1" s="1" t="inlineStr">
+        <is>
+          <t>failed</t>
+        </is>
+      </c>
+      <c r="ABE1" s="1" t="inlineStr">
+        <is>
+          <t>case</t>
+        </is>
+      </c>
+      <c r="ABF1" s="1" t="inlineStr">
+        <is>
+          <t>flexibility</t>
+        </is>
+      </c>
+      <c r="ABG1" s="1" t="inlineStr">
+        <is>
+          <t>formed</t>
+        </is>
+      </c>
+      <c r="ABH1" s="1" t="inlineStr">
+        <is>
+          <t>1978</t>
+        </is>
+      </c>
+      <c r="ABI1" s="1" t="inlineStr">
+        <is>
+          <t>bringing</t>
+        </is>
+      </c>
+      <c r="ABJ1" s="1" t="inlineStr">
+        <is>
+          <t>always</t>
+        </is>
+      </c>
+      <c r="ABK1" s="1" t="inlineStr">
+        <is>
+          <t>actually</t>
+        </is>
+      </c>
+      <c r="ABL1" s="1" t="inlineStr">
+        <is>
+          <t>induced</t>
+        </is>
+      </c>
+      <c r="ABM1" s="1" t="inlineStr">
+        <is>
+          <t>1981</t>
+        </is>
+      </c>
+      <c r="ABN1" s="1" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="ABO1" s="1" t="inlineStr">
+        <is>
+          <t>3-stage</t>
+        </is>
+      </c>
+      <c r="ABP1" s="1" t="inlineStr">
+        <is>
+          <t>earlier</t>
+        </is>
+      </c>
+      <c r="ABQ1" s="1" t="inlineStr">
+        <is>
+          <t>jars</t>
+        </is>
+      </c>
+      <c r="ABR1" s="1" t="inlineStr">
+        <is>
+          <t>likely</t>
+        </is>
+      </c>
+      <c r="ABS1" s="1" t="inlineStr">
+        <is>
+          <t>metacognitive</t>
+        </is>
+      </c>
+      <c r="ABT1" s="1" t="inlineStr">
+        <is>
+          <t>achieving</t>
+        </is>
+      </c>
+      <c r="ABU1" s="1" t="inlineStr">
+        <is>
+          <t>motivational</t>
+        </is>
+      </c>
+      <c r="ABV1" s="1" t="inlineStr">
+        <is>
+          <t>appropriate</t>
+        </is>
+      </c>
+      <c r="ABW1" s="1" t="inlineStr">
+        <is>
+          <t>cole</t>
+        </is>
+      </c>
+      <c r="ABX1" s="1" t="inlineStr">
+        <is>
+          <t>inferior</t>
+        </is>
+      </c>
+      <c r="ABY1" s="1" t="inlineStr">
+        <is>
+          <t>local</t>
+        </is>
+      </c>
+      <c r="ABZ1" s="1" t="inlineStr">
+        <is>
+          <t>report</t>
+        </is>
+      </c>
+      <c r="ACA1" s="1" t="inlineStr">
+        <is>
+          <t>childs</t>
+        </is>
+      </c>
+      <c r="ACB1" s="1" t="inlineStr">
+        <is>
+          <t>collaborative</t>
+        </is>
+      </c>
+      <c r="ACC1" s="1" t="inlineStr">
+        <is>
+          <t>sought</t>
+        </is>
+      </c>
+      <c r="ACD1" s="1" t="inlineStr">
+        <is>
+          <t>collegial</t>
+        </is>
+      </c>
+      <c r="ACE1" s="1" t="inlineStr">
+        <is>
+          <t>commonly</t>
+        </is>
+      </c>
+      <c r="ACF1" s="1" t="inlineStr">
+        <is>
+          <t>successful</t>
+        </is>
+      </c>
+      <c r="ACG1" s="1" t="inlineStr">
+        <is>
+          <t>consistent</t>
+        </is>
+      </c>
+      <c r="ACH1" s="1" t="inlineStr">
+        <is>
+          <t>stated</t>
+        </is>
+      </c>
+      <c r="ACI1" s="1" t="inlineStr">
+        <is>
+          <t>seniors</t>
+        </is>
+      </c>
+      <c r="ACJ1" s="1" t="inlineStr">
+        <is>
+          <t>determine</t>
+        </is>
+      </c>
+      <c r="ACK1" s="1" t="inlineStr">
+        <is>
+          <t>moon</t>
+        </is>
+      </c>
+      <c r="ACL1" s="1" t="inlineStr">
+        <is>
+          <t>dialog</t>
+        </is>
+      </c>
+      <c r="ACM1" s="1" t="inlineStr">
+        <is>
+          <t>differently</t>
+        </is>
+      </c>
+      <c r="ACN1" s="1" t="inlineStr">
+        <is>
+          <t>providing</t>
+        </is>
+      </c>
+      <c r="ACO1" s="1" t="inlineStr">
+        <is>
+          <t>discourse</t>
+        </is>
+      </c>
+      <c r="ACP1" s="1" t="inlineStr">
+        <is>
+          <t>enable</t>
+        </is>
+      </c>
+      <c r="ACQ1" s="1" t="inlineStr">
+        <is>
+          <t>implications</t>
+        </is>
+      </c>
+      <c r="ACR1" s="1" t="inlineStr">
+        <is>
+          <t>functions</t>
+        </is>
+      </c>
+      <c r="ACS1" s="1" t="inlineStr">
+        <is>
+          <t>interacted</t>
+        </is>
+      </c>
+      <c r="ACT1" s="1" t="inlineStr">
+        <is>
+          <t>journaling</t>
+        </is>
+      </c>
+      <c r="ACU1" s="1" t="inlineStr">
+        <is>
+          <t>kept</t>
+        </is>
+      </c>
+      <c r="ACV1" s="1" t="inlineStr">
+        <is>
+          <t>make</t>
+        </is>
+      </c>
+      <c r="ACW1" s="1" t="inlineStr">
+        <is>
+          <t>mutuality</t>
+        </is>
+      </c>
+      <c r="ACX1" s="1" t="inlineStr">
+        <is>
+          <t>whether</t>
+        </is>
+      </c>
+      <c r="ACY1" s="1" t="inlineStr">
+        <is>
+          <t>vary</t>
+        </is>
+      </c>
+      <c r="ACZ1" s="1" t="inlineStr">
+        <is>
+          <t>together</t>
+        </is>
+      </c>
+      <c r="ADA1" s="1" t="inlineStr">
+        <is>
+          <t>promote</t>
+        </is>
+      </c>
+      <c r="ADB1" s="1" t="inlineStr">
+        <is>
+          <t>supported</t>
+        </is>
+      </c>
+      <c r="ADC1" s="1" t="inlineStr">
+        <is>
+          <t>collaborate</t>
+        </is>
+      </c>
+      <c r="ADD1" s="1" t="inlineStr">
+        <is>
+          <t>youth</t>
+        </is>
+      </c>
+      <c r="ADE1" s="1" t="inlineStr">
+        <is>
+          <t>jacob</t>
+        </is>
+      </c>
+      <c r="ADF1" s="1" t="inlineStr">
+        <is>
+          <t>grew</t>
+        </is>
+      </c>
+      <c r="ADG1" s="1" t="inlineStr">
+        <is>
+          <t>goals</t>
+        </is>
+      </c>
+      <c r="ADH1" s="1" t="inlineStr">
+        <is>
+          <t>liaison</t>
+        </is>
+      </c>
+      <c r="ADI1" s="1" t="inlineStr">
+        <is>
+          <t>keep</t>
+        </is>
+      </c>
+      <c r="ADJ1" s="1" t="inlineStr">
+        <is>
+          <t>obtaining</t>
+        </is>
+      </c>
+      <c r="ADK1" s="1" t="inlineStr">
+        <is>
+          <t>kansas</t>
+        </is>
+      </c>
+      <c r="ADL1" s="1" t="inlineStr">
+        <is>
+          <t>k.</t>
+        </is>
+      </c>
+      <c r="ADM1" s="1" t="inlineStr">
+        <is>
+          <t>options</t>
+        </is>
+      </c>
+      <c r="ADN1" s="1" t="inlineStr">
+        <is>
+          <t>act</t>
+        </is>
+      </c>
+      <c r="ADO1" s="1" t="inlineStr">
+        <is>
+          <t>information</t>
+        </is>
+      </c>
+      <c r="ADP1" s="1" t="inlineStr">
+        <is>
+          <t>in-school</t>
+        </is>
+      </c>
+      <c r="ADQ1" s="1" t="inlineStr">
+        <is>
+          <t>importance</t>
+        </is>
+      </c>
+      <c r="ADR1" s="1" t="inlineStr">
+        <is>
           <t>low</t>
         </is>
       </c>
-      <c r="AAS1" s="1" t="inlineStr">
-        <is>
-          <t>motivational</t>
-        </is>
-      </c>
-      <c r="AAT1" s="1" t="inlineStr">
-        <is>
-          <t>keep</t>
-        </is>
-      </c>
-      <c r="AAU1" s="1" t="inlineStr">
-        <is>
-          <t>obtaining</t>
-        </is>
-      </c>
-      <c r="AAV1" s="1" t="inlineStr">
-        <is>
-          <t>more</t>
-        </is>
-      </c>
-      <c r="AAW1" s="1" t="inlineStr">
+      <c r="ADS1" s="1" t="inlineStr">
+        <is>
+          <t>however</t>
+        </is>
+      </c>
+      <c r="ADT1" s="1" t="inlineStr">
+        <is>
+          <t>funded</t>
+        </is>
+      </c>
+      <c r="ADU1" s="1" t="inlineStr">
+        <is>
+          <t>fully</t>
+        </is>
+      </c>
+      <c r="ADV1" s="1" t="inlineStr">
+        <is>
+          <t>fit</t>
+        </is>
+      </c>
+      <c r="ADW1" s="1" t="inlineStr">
+        <is>
+          <t>explains</t>
+        </is>
+      </c>
+      <c r="ADX1" s="1" t="inlineStr">
+        <is>
+          <t>college</t>
+        </is>
+      </c>
+      <c r="ADY1" s="1" t="inlineStr">
+        <is>
+          <t>career</t>
+        </is>
+      </c>
+      <c r="ADZ1" s="1" t="inlineStr">
+        <is>
+          <t>auspices</t>
+        </is>
+      </c>
+      <c r="AEA1" s="1" t="inlineStr">
+        <is>
+          <t>project-promise</t>
+        </is>
+      </c>
+      <c r="AEB1" s="1" t="inlineStr">
+        <is>
+          <t>assisted</t>
+        </is>
+      </c>
+      <c r="AEC1" s="1" t="inlineStr">
+        <is>
+          <t>arkansas</t>
+        </is>
+      </c>
+      <c r="AED1" s="1" t="inlineStr">
+        <is>
+          <t>promises</t>
+        </is>
+      </c>
+      <c r="AEE1" s="1" t="inlineStr">
+        <is>
+          <t>affected</t>
+        </is>
+      </c>
+      <c r="AEF1" s="1" t="inlineStr">
         <is>
           <t>missouri</t>
         </is>
       </c>
-      <c r="AAX1" s="1" t="inlineStr">
-        <is>
-          <t>k.</t>
-        </is>
-      </c>
-      <c r="AAY1" s="1" t="inlineStr">
-        <is>
-          <t>jacob</t>
-        </is>
-      </c>
-      <c r="AAZ1" s="1" t="inlineStr">
-        <is>
-          <t>information</t>
-        </is>
-      </c>
-      <c r="ABA1" s="1" t="inlineStr">
-        <is>
-          <t>options</t>
-        </is>
-      </c>
-      <c r="ABB1" s="1" t="inlineStr">
-        <is>
-          <t>never</t>
-        </is>
-      </c>
-      <c r="ABC1" s="1" t="inlineStr">
-        <is>
-          <t>likely</t>
-        </is>
-      </c>
-      <c r="ABD1" s="1" t="inlineStr">
-        <is>
-          <t>project-promise</t>
-        </is>
-      </c>
-      <c r="ABE1" s="1" t="inlineStr">
-        <is>
-          <t>liaison</t>
-        </is>
-      </c>
-      <c r="ABF1" s="1" t="inlineStr">
-        <is>
-          <t>local</t>
-        </is>
-      </c>
-      <c r="ABG1" s="1" t="inlineStr">
-        <is>
-          <t>metacognitive</t>
-        </is>
-      </c>
-      <c r="ABH1" s="1" t="inlineStr">
-        <is>
-          <t>kansas</t>
-        </is>
-      </c>
-      <c r="ABI1" s="1" t="inlineStr">
-        <is>
-          <t>bringing</t>
-        </is>
-      </c>
-      <c r="ABJ1" s="1" t="inlineStr">
-        <is>
-          <t>promises</t>
-        </is>
-      </c>
-      <c r="ABK1" s="1" t="inlineStr">
-        <is>
-          <t>always</t>
-        </is>
-      </c>
-      <c r="ABL1" s="1" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="ABM1" s="1" t="inlineStr">
-        <is>
-          <t>1978</t>
-        </is>
-      </c>
-      <c r="ABN1" s="1" t="inlineStr">
-        <is>
-          <t>1981</t>
-        </is>
-      </c>
-      <c r="ABO1" s="1" t="inlineStr">
-        <is>
-          <t>3-stage</t>
-        </is>
-      </c>
-      <c r="ABP1" s="1" t="inlineStr">
-        <is>
-          <t>achieving</t>
-        </is>
-      </c>
-      <c r="ABQ1" s="1" t="inlineStr">
-        <is>
-          <t>appropriate</t>
-        </is>
-      </c>
-      <c r="ABR1" s="1" t="inlineStr">
-        <is>
-          <t>cole</t>
-        </is>
-      </c>
-      <c r="ABS1" s="1" t="inlineStr">
-        <is>
-          <t>developmentally</t>
-        </is>
-      </c>
-      <c r="ABT1" s="1" t="inlineStr">
-        <is>
-          <t>goals</t>
-        </is>
-      </c>
-      <c r="ABU1" s="1" t="inlineStr">
-        <is>
-          <t>implications</t>
-        </is>
-      </c>
-      <c r="ABV1" s="1" t="inlineStr">
-        <is>
-          <t>moon</t>
-        </is>
-      </c>
-      <c r="ABW1" s="1" t="inlineStr">
-        <is>
-          <t>seniors</t>
-        </is>
-      </c>
-      <c r="ABX1" s="1" t="inlineStr">
-        <is>
-          <t>stated</t>
-        </is>
-      </c>
-      <c r="ABY1" s="1" t="inlineStr">
-        <is>
-          <t>successful</t>
-        </is>
-      </c>
-      <c r="ABZ1" s="1" t="inlineStr">
-        <is>
-          <t>youth</t>
-        </is>
-      </c>
-      <c r="ACA1" s="1" t="inlineStr">
-        <is>
-          <t>actually</t>
-        </is>
-      </c>
-      <c r="ACB1" s="1" t="inlineStr">
-        <is>
-          <t>importance</t>
-        </is>
-      </c>
-      <c r="ACC1" s="1" t="inlineStr">
-        <is>
-          <t>providing</t>
-        </is>
-      </c>
-      <c r="ACD1" s="1" t="inlineStr">
-        <is>
-          <t>case</t>
-        </is>
-      </c>
-      <c r="ACE1" s="1" t="inlineStr">
-        <is>
-          <t>report</t>
-        </is>
-      </c>
-      <c r="ACF1" s="1" t="inlineStr">
-        <is>
-          <t>states</t>
-        </is>
-      </c>
-      <c r="ACG1" s="1" t="inlineStr">
-        <is>
-          <t>suit</t>
-        </is>
-      </c>
-      <c r="ACH1" s="1" t="inlineStr">
-        <is>
-          <t>supplemented</t>
-        </is>
-      </c>
-      <c r="ACI1" s="1" t="inlineStr">
-        <is>
-          <t>jars</t>
-        </is>
-      </c>
-      <c r="ACJ1" s="1" t="inlineStr">
-        <is>
-          <t>inferior</t>
-        </is>
-      </c>
-      <c r="ACK1" s="1" t="inlineStr">
-        <is>
-          <t>induced</t>
-        </is>
-      </c>
-      <c r="ACL1" s="1" t="inlineStr">
-        <is>
-          <t>formed</t>
-        </is>
-      </c>
-      <c r="ACM1" s="1" t="inlineStr">
-        <is>
-          <t>flexibility</t>
-        </is>
-      </c>
-      <c r="ACN1" s="1" t="inlineStr">
-        <is>
-          <t>failed</t>
-        </is>
-      </c>
-      <c r="ACO1" s="1" t="inlineStr">
-        <is>
-          <t>exclude</t>
-        </is>
-      </c>
-      <c r="ACP1" s="1" t="inlineStr">
-        <is>
-          <t>earlier</t>
-        </is>
-      </c>
-      <c r="ACQ1" s="1" t="inlineStr">
-        <is>
-          <t>drop</t>
-        </is>
-      </c>
-      <c r="ACR1" s="1" t="inlineStr">
-        <is>
-          <t>defined</t>
-        </is>
-      </c>
-      <c r="ACS1" s="1" t="inlineStr">
-        <is>
-          <t>combination</t>
-        </is>
-      </c>
-      <c r="ACT1" s="1" t="inlineStr">
-        <is>
-          <t>in-school</t>
-        </is>
-      </c>
-      <c r="ACU1" s="1" t="inlineStr">
-        <is>
-          <t>there</t>
-        </is>
-      </c>
-      <c r="ACV1" s="1" t="inlineStr">
-        <is>
-          <t>nongifted</t>
-        </is>
-      </c>
-      <c r="ACW1" s="1" t="inlineStr">
-        <is>
-          <t>collegial</t>
-        </is>
-      </c>
-      <c r="ACX1" s="1" t="inlineStr">
-        <is>
-          <t>dialog</t>
-        </is>
-      </c>
-      <c r="ACY1" s="1" t="inlineStr">
-        <is>
-          <t>regarding</t>
-        </is>
-      </c>
-      <c r="ACZ1" s="1" t="inlineStr">
-        <is>
-          <t>determine</t>
-        </is>
-      </c>
-      <c r="ADA1" s="1" t="inlineStr">
-        <is>
-          <t>consistent</t>
-        </is>
-      </c>
-      <c r="ADB1" s="1" t="inlineStr">
-        <is>
-          <t>productive</t>
-        </is>
-      </c>
-      <c r="ADC1" s="1" t="inlineStr">
-        <is>
-          <t>commonly</t>
-        </is>
-      </c>
-      <c r="ADD1" s="1" t="inlineStr">
-        <is>
-          <t>practitioners</t>
-        </is>
-      </c>
-      <c r="ADE1" s="1" t="inlineStr">
-        <is>
-          <t>pay</t>
-        </is>
-      </c>
-      <c r="ADF1" s="1" t="inlineStr">
-        <is>
-          <t>collaborative</t>
-        </is>
-      </c>
-      <c r="ADG1" s="1" t="inlineStr">
-        <is>
-          <t>headings</t>
-        </is>
-      </c>
-      <c r="ADH1" s="1" t="inlineStr">
-        <is>
-          <t>must</t>
-        </is>
-      </c>
-      <c r="ADI1" s="1" t="inlineStr">
-        <is>
-          <t>issue</t>
-        </is>
-      </c>
-      <c r="ADJ1" s="1" t="inlineStr">
-        <is>
-          <t>individual</t>
-        </is>
-      </c>
-      <c r="ADK1" s="1" t="inlineStr">
-        <is>
-          <t>ideology</t>
-        </is>
-      </c>
-      <c r="ADL1" s="1" t="inlineStr">
-        <is>
-          <t>collaborate</t>
-        </is>
-      </c>
-      <c r="ADM1" s="1" t="inlineStr">
-        <is>
-          <t>hypothesis</t>
-        </is>
-      </c>
-      <c r="ADN1" s="1" t="inlineStr">
-        <is>
-          <t>childs</t>
-        </is>
-      </c>
-      <c r="ADO1" s="1" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="ADP1" s="1" t="inlineStr">
-        <is>
-          <t>researchers</t>
-        </is>
-      </c>
-      <c r="ADQ1" s="1" t="inlineStr">
-        <is>
-          <t>differently</t>
-        </is>
-      </c>
-      <c r="ADR1" s="1" t="inlineStr">
-        <is>
-          <t>screening</t>
-        </is>
-      </c>
-      <c r="ADS1" s="1" t="inlineStr">
-        <is>
-          <t>discourse</t>
-        </is>
-      </c>
-      <c r="ADT1" s="1" t="inlineStr">
-        <is>
-          <t>however</t>
-        </is>
-      </c>
-      <c r="ADU1" s="1" t="inlineStr">
-        <is>
-          <t>whether</t>
-        </is>
-      </c>
-      <c r="ADV1" s="1" t="inlineStr">
-        <is>
-          <t>vary</t>
-        </is>
-      </c>
-      <c r="ADW1" s="1" t="inlineStr">
-        <is>
-          <t>together</t>
-        </is>
-      </c>
-      <c r="ADX1" s="1" t="inlineStr">
-        <is>
-          <t>supported</t>
-        </is>
-      </c>
-      <c r="ADY1" s="1" t="inlineStr">
-        <is>
-          <t>sought</t>
-        </is>
-      </c>
-      <c r="ADZ1" s="1" t="inlineStr">
-        <is>
-          <t>versus</t>
-        </is>
-      </c>
-      <c r="AEA1" s="1" t="inlineStr">
-        <is>
-          <t>usefully</t>
-        </is>
-      </c>
-      <c r="AEB1" s="1" t="inlineStr">
-        <is>
-          <t>promote</t>
-        </is>
-      </c>
-      <c r="AEC1" s="1" t="inlineStr">
-        <is>
-          <t>make</t>
-        </is>
-      </c>
-      <c r="AED1" s="1" t="inlineStr">
-        <is>
-          <t>societal</t>
-        </is>
-      </c>
-      <c r="AEE1" s="1" t="inlineStr">
-        <is>
-          <t>kept</t>
-        </is>
-      </c>
-      <c r="AEF1" s="1" t="inlineStr">
-        <is>
-          <t>journaling</t>
-        </is>
-      </c>
       <c r="AEG1" s="1" t="inlineStr">
         <is>
-          <t>seven</t>
+          <t>tools</t>
         </is>
       </c>
       <c r="AEH1" s="1" t="inlineStr">
         <is>
-          <t>interacted</t>
+          <t>specific</t>
         </is>
       </c>
       <c r="AEI1" s="1" t="inlineStr">
         <is>
-          <t>functions</t>
+          <t>entry</t>
         </is>
       </c>
       <c r="AEJ1" s="1" t="inlineStr">
         <is>
-          <t>enable</t>
+          <t>sixth-grade</t>
         </is>
       </c>
       <c r="AEK1" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>responsible</t>
         </is>
       </c>
       <c r="AEL1" s="1" t="inlineStr">
         <is>
-          <t>mutuality</t>
+          <t>responded</t>
         </is>
       </c>
       <c r="AEM1" s="1" t="inlineStr">
         <is>
-          <t>ethno-cultural</t>
+          <t>proportionate</t>
         </is>
       </c>
       <c r="AEN1" s="1" t="inlineStr">
         <is>
-          <t>sets</t>
+          <t>persistent</t>
         </is>
       </c>
       <c r="AEO1" s="1" t="inlineStr">
         <is>
-          <t>reanalyzed</t>
+          <t>holds</t>
         </is>
       </c>
       <c r="AEP1" s="1" t="inlineStr">
         <is>
-          <t>reanalysis</t>
+          <t>held</t>
         </is>
       </c>
       <c r="AEQ1" s="1" t="inlineStr">
         <is>
-          <t>problems</t>
+          <t>acceptability</t>
         </is>
       </c>
       <c r="AER1" s="1" t="inlineStr">
         <is>
-          <t>outperform</t>
+          <t>positions</t>
         </is>
       </c>
       <c r="AES1" s="1" t="inlineStr">
         <is>
-          <t>act</t>
+          <t>aggressor</t>
         </is>
       </c>
       <c r="AET1" s="1" t="inlineStr">
         <is>
-          <t>affected</t>
+          <t>literature</t>
         </is>
       </c>
       <c r="AEU1" s="1" t="inlineStr">
         <is>
-          <t>arkansas</t>
+          <t>drawing</t>
         </is>
       </c>
       <c r="AEV1" s="1" t="inlineStr">
         <is>
-          <t>assisted</t>
+          <t>victims</t>
         </is>
       </c>
       <c r="AEW1" s="1" t="inlineStr">
         <is>
-          <t>auspices</t>
+          <t>victim</t>
         </is>
       </c>
       <c r="AEX1" s="1" t="inlineStr">
         <is>
-          <t>career</t>
+          <t>valued</t>
         </is>
       </c>
       <c r="AEY1" s="1" t="inlineStr">
         <is>
-          <t>college</t>
+          <t>sociometric</t>
         </is>
       </c>
       <c r="AEZ1" s="1" t="inlineStr">
         <is>
-          <t>fit</t>
+          <t>sixth</t>
         </is>
       </c>
       <c r="AFA1" s="1" t="inlineStr">
         <is>
-          <t>fully</t>
+          <t>relative</t>
         </is>
       </c>
       <c r="AFB1" s="1" t="inlineStr">
         <is>
-          <t>funded</t>
+          <t>reciprocity</t>
         </is>
       </c>
       <c r="AFC1" s="1" t="inlineStr">
         <is>
-          <t>grew</t>
+          <t>network</t>
         </is>
       </c>
       <c r="AFD1" s="1" t="inlineStr">
         <is>
-          <t>either</t>
+          <t>graders</t>
         </is>
       </c>
       <c r="AFE1" s="1" t="inlineStr">
         <is>
-          <t>omitted</t>
+          <t>aggressors</t>
         </is>
       </c>
       <c r="AFF1" s="1" t="inlineStr">
         <is>
-          <t>reasons</t>
+          <t>fourth</t>
         </is>
       </c>
       <c r="AFG1" s="1" t="inlineStr">
         <is>
-          <t>explains</t>
+          <t>fifth</t>
         </is>
       </c>
       <c r="AFH1" s="1" t="inlineStr">
         <is>
-          <t>strength</t>
+          <t>evident</t>
         </is>
       </c>
       <c r="AFI1" s="1" t="inlineStr">
         <is>
-          <t>backgrounds</t>
+          <t>evaluated</t>
         </is>
       </c>
       <c r="AFJ1" s="1" t="inlineStr">
         <is>
-          <t>definition</t>
+          <t>environment</t>
         </is>
       </c>
       <c r="AFK1" s="1" t="inlineStr">
         <is>
-          <t>superior</t>
+          <t>enhanced</t>
         </is>
       </c>
       <c r="AFL1" s="1" t="inlineStr">
         <is>
-          <t>discussions</t>
+          <t>effect</t>
         </is>
       </c>
       <c r="AFM1" s="1" t="inlineStr">
         <is>
-          <t>controversies</t>
+          <t>current</t>
         </is>
       </c>
       <c r="AFN1" s="1" t="inlineStr">
         <is>
-          <t>concerning</t>
+          <t>awareness</t>
         </is>
       </c>
       <c r="AFO1" s="1" t="inlineStr">
         <is>
-          <t>central</t>
+          <t>efficacy</t>
         </is>
       </c>
       <c r="AFP1" s="1" t="inlineStr">
         <is>
-          <t>categorized</t>
+          <t>understand</t>
         </is>
       </c>
       <c r="AFQ1" s="1" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>directions</t>
         </is>
       </c>
       <c r="AFR1" s="1" t="inlineStr">
         <is>
-          <t>classified</t>
+          <t>dynamics</t>
         </is>
       </c>
       <c r="AFS1" s="1" t="inlineStr">
         <is>
-          <t>useful</t>
+          <t>increased</t>
         </is>
       </c>
       <c r="AFT1" s="1" t="inlineStr">
         <is>
-          <t>argues</t>
+          <t>incorporate</t>
         </is>
       </c>
       <c r="AFU1" s="1" t="inlineStr">
         <is>
-          <t>therefore</t>
+          <t>incongruent</t>
         </is>
       </c>
       <c r="AFV1" s="1" t="inlineStr">
         <is>
-          <t>argued</t>
+          <t>generated</t>
         </is>
       </c>
       <c r="AFW1" s="1" t="inlineStr">
         <is>
-          <t>according</t>
+          <t>feelings</t>
         </is>
       </c>
       <c r="AFX1" s="1" t="inlineStr">
         <is>
-          <t>water</t>
+          <t>established</t>
         </is>
       </c>
       <c r="AFY1" s="1" t="inlineStr">
         <is>
-          <t>attention</t>
+          <t>csikszentmihalyi</t>
         </is>
       </c>
       <c r="AFZ1" s="1" t="inlineStr">
         <is>
-          <t>traditionally</t>
+          <t>interpreted</t>
         </is>
       </c>
       <c r="AGA1" s="1" t="inlineStr">
         <is>
-          <t>held</t>
+          <t>congruent</t>
         </is>
       </c>
       <c r="AGB1" s="1" t="inlineStr">
         <is>
-          <t>persistent</t>
+          <t>conditions</t>
         </is>
       </c>
       <c r="AGC1" s="1" t="inlineStr">
         <is>
-          <t>graders</t>
+          <t>compelling</t>
         </is>
       </c>
       <c r="AGD1" s="1" t="inlineStr">
         <is>
-          <t>literature</t>
+          <t>calls</t>
         </is>
       </c>
       <c r="AGE1" s="1" t="inlineStr">
         <is>
-          <t>network</t>
+          <t>analyzed</t>
         </is>
       </c>
       <c r="AGF1" s="1" t="inlineStr">
         <is>
-          <t>holds</t>
+          <t>1990</t>
         </is>
       </c>
       <c r="AGG1" s="1" t="inlineStr">
         <is>
+          <t>inductive</t>
+        </is>
+      </c>
+      <c r="AGH1" s="1" t="inlineStr">
+        <is>
+          <t>interviews</t>
+        </is>
+      </c>
+      <c r="AGI1" s="1" t="inlineStr">
+        <is>
           <t>assessing</t>
         </is>
       </c>
-      <c r="AGH1" s="1" t="inlineStr">
-        <is>
-          <t>entry</t>
-        </is>
-      </c>
-      <c r="AGI1" s="1" t="inlineStr">
-        <is>
-          <t>efficacy</t>
-        </is>
-      </c>
       <c r="AGJ1" s="1" t="inlineStr">
         <is>
-          <t>drawing</t>
+          <t>recreate</t>
         </is>
       </c>
       <c r="AGK1" s="1" t="inlineStr">
         <is>
-          <t>directions</t>
+          <t>trying</t>
         </is>
       </c>
       <c r="AGL1" s="1" t="inlineStr">
         <is>
-          <t>responded</t>
+          <t>studied</t>
         </is>
       </c>
       <c r="AGM1" s="1" t="inlineStr">
         <is>
-          <t>because</t>
+          <t>setting</t>
         </is>
       </c>
       <c r="AGN1" s="1" t="inlineStr">
         <is>
-          <t>proportionate</t>
+          <t>seemed</t>
         </is>
       </c>
       <c r="AGO1" s="1" t="inlineStr">
         <is>
-          <t>aggressors</t>
+          <t>repeatedly</t>
         </is>
       </c>
       <c r="AGP1" s="1" t="inlineStr">
         <is>
-          <t>responsible</t>
+          <t>relatively</t>
         </is>
       </c>
       <c r="AGQ1" s="1" t="inlineStr">
         <is>
-          <t>sixth-grade</t>
+          <t>probability</t>
         </is>
       </c>
       <c r="AGR1" s="1" t="inlineStr">
         <is>
-          <t>specific</t>
+          <t>isomorphic</t>
         </is>
       </c>
       <c r="AGS1" s="1" t="inlineStr">
         <is>
-          <t>tools</t>
+          <t>practical</t>
         </is>
       </c>
       <c r="AGT1" s="1" t="inlineStr">
         <is>
-          <t>acceptability</t>
+          <t>phenomenological</t>
         </is>
       </c>
       <c r="AGU1" s="1" t="inlineStr">
         <is>
-          <t>fourth</t>
+          <t>participant</t>
         </is>
       </c>
       <c r="AGV1" s="1" t="inlineStr">
         <is>
-          <t>aggressor</t>
+          <t>many</t>
         </is>
       </c>
       <c r="AGW1" s="1" t="inlineStr">
         <is>
-          <t>awareness</t>
+          <t>lesson</t>
         </is>
       </c>
       <c r="AGX1" s="1" t="inlineStr">
         <is>
-          <t>fifth</t>
+          <t>knowledge</t>
         </is>
       </c>
       <c r="AGY1" s="1" t="inlineStr">
         <is>
-          <t>current</t>
+          <t>unexplored</t>
         </is>
       </c>
       <c r="AGZ1" s="1" t="inlineStr">
         <is>
-          <t>effect</t>
+          <t>avenue</t>
         </is>
       </c>
       <c r="AHA1" s="1" t="inlineStr">
         <is>
-          <t>enhanced</t>
+          <t>artistic</t>
         </is>
       </c>
       <c r="AHB1" s="1" t="inlineStr">
         <is>
-          <t>positions</t>
+          <t>433</t>
         </is>
       </c>
       <c r="AHC1" s="1" t="inlineStr">
         <is>
-          <t>environment</t>
+          <t>underserved</t>
         </is>
       </c>
       <c r="AHD1" s="1" t="inlineStr">
         <is>
-          <t>artistic</t>
+          <t>longitudinal</t>
         </is>
       </c>
       <c r="AHE1" s="1" t="inlineStr">
         <is>
-          <t>evaluated</t>
+          <t>testing</t>
         </is>
       </c>
       <c r="AHF1" s="1" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>15</t>
         </is>
       </c>
       <c r="AHG1" s="1" t="inlineStr">
         <is>
-          <t>reciprocity</t>
+          <t>combines</t>
         </is>
       </c>
       <c r="AHH1" s="1" t="inlineStr">
         <is>
-          <t>evident</t>
+          <t>conducted</t>
         </is>
       </c>
       <c r="AHI1" s="1" t="inlineStr">
         <is>
-          <t>relative</t>
+          <t>door</t>
         </is>
       </c>
       <c r="AHJ1" s="1" t="inlineStr">
         <is>
-          <t>sixth</t>
+          <t>explanation</t>
         </is>
       </c>
       <c r="AHK1" s="1" t="inlineStr">
         <is>
-          <t>sociometric</t>
+          <t>extensive</t>
         </is>
       </c>
       <c r="AHL1" s="1" t="inlineStr">
         <is>
-          <t>valued</t>
+          <t>revolving</t>
         </is>
       </c>
       <c r="AHM1" s="1" t="inlineStr">
         <is>
-          <t>victim</t>
+          <t>product</t>
         </is>
       </c>
       <c r="AHN1" s="1" t="inlineStr">
         <is>
-          <t>victims</t>
+          <t>worldwide</t>
         </is>
       </c>
       <c r="AHO1" s="1" t="inlineStr">
         <is>
-          <t>we</t>
+          <t>self-efficacy</t>
         </is>
       </c>
       <c r="AHP1" s="1" t="inlineStr">
         <is>
-          <t>calls</t>
+          <t>serving</t>
         </is>
       </c>
       <c r="AHQ1" s="1" t="inlineStr">
         <is>
-          <t>csikszentmihalyi</t>
+          <t>settings</t>
         </is>
       </c>
       <c r="AHR1" s="1" t="inlineStr">
         <is>
-          <t>congruent</t>
+          <t>summary</t>
         </is>
       </c>
       <c r="AHS1" s="1" t="inlineStr">
         <is>
-          <t>conditions</t>
+          <t>subdivided</t>
         </is>
       </c>
       <c r="AHT1" s="1" t="inlineStr">
         <is>
-          <t>compelling</t>
+          <t>productivity</t>
         </is>
       </c>
       <c r="AHU1" s="1" t="inlineStr">
         <is>
-          <t>1990</t>
+          <t>styles</t>
         </is>
       </c>
       <c r="AHV1" s="1" t="inlineStr">
         <is>
-          <t>being</t>
+          <t>t-3</t>
         </is>
       </c>
       <c r="AHW1" s="1" t="inlineStr">
         <is>
-          <t>avenue</t>
+          <t>revealed</t>
         </is>
       </c>
       <c r="AHX1" s="1" t="inlineStr">
         <is>
-          <t>analyzed</t>
+          <t>secondary</t>
         </is>
       </c>
       <c r="AHY1" s="1" t="inlineStr">
         <is>
-          <t>established</t>
+          <t>statistical</t>
         </is>
       </c>
       <c r="AHZ1" s="1" t="inlineStr">
         <is>
-          <t>most</t>
+          <t>t-1</t>
         </is>
       </c>
       <c r="AIA1" s="1" t="inlineStr">
         <is>
-          <t>incorporate</t>
+          <t>t-2</t>
         </is>
       </c>
       <c r="AIB1" s="1" t="inlineStr">
         <is>
-          <t>feelings</t>
+          <t>tcam</t>
         </is>
       </c>
       <c r="AIC1" s="1" t="inlineStr">
         <is>
-          <t>generated</t>
+          <t>t-4</t>
         </is>
       </c>
       <c r="AID1" s="1" t="inlineStr">
         <is>
-          <t>incongruent</t>
+          <t>t-5</t>
         </is>
       </c>
       <c r="AIE1" s="1" t="inlineStr">
         <is>
-          <t>knowledge</t>
+          <t>play</t>
         </is>
       </c>
       <c r="AIF1" s="1" t="inlineStr">
         <is>
-          <t>increased</t>
+          <t>thought</t>
         </is>
       </c>
       <c r="AIG1" s="1" t="inlineStr">
         <is>
-          <t>inductive</t>
+          <t>torrance</t>
         </is>
       </c>
       <c r="AIH1" s="1" t="inlineStr">
         <is>
-          <t>many</t>
+          <t>utterance</t>
         </is>
       </c>
       <c r="AII1" s="1" t="inlineStr">
         <is>
-          <t>interpreted</t>
+          <t>preschool</t>
         </is>
       </c>
       <c r="AIJ1" s="1" t="inlineStr">
         <is>
-          <t>interviews</t>
+          <t>measurements</t>
         </is>
       </c>
       <c r="AIK1" s="1" t="inlineStr">
         <is>
-          <t>lesson</t>
+          <t>nonfacilitative</t>
         </is>
       </c>
       <c r="AIL1" s="1" t="inlineStr">
         <is>
-          <t>isomorphic</t>
+          <t>movement</t>
         </is>
       </c>
       <c r="AIM1" s="1" t="inlineStr">
         <is>
-          <t>his</t>
+          <t>linked</t>
         </is>
       </c>
       <c r="AIN1" s="1" t="inlineStr">
         <is>
-          <t>dynamics</t>
+          <t>irrelevant</t>
         </is>
       </c>
       <c r="AIO1" s="1" t="inlineStr">
         <is>
-          <t>participant</t>
+          <t>instrument</t>
         </is>
       </c>
       <c r="AIP1" s="1" t="inlineStr">
         <is>
-          <t>productivity</t>
+          <t>furthermore</t>
         </is>
       </c>
       <c r="AIQ1" s="1" t="inlineStr">
         <is>
-          <t>unexplored</t>
+          <t>examine</t>
         </is>
       </c>
       <c r="AIR1" s="1" t="inlineStr">
         <is>
-          <t>phenomenological</t>
+          <t>demonstrating</t>
         </is>
       </c>
       <c r="AIS1" s="1" t="inlineStr">
         <is>
-          <t>worldwide</t>
+          <t>creatively</t>
         </is>
       </c>
       <c r="AIT1" s="1" t="inlineStr">
         <is>
-          <t>underserved</t>
+          <t>coping</t>
         </is>
       </c>
       <c r="AIU1" s="1" t="inlineStr">
         <is>
-          <t>testing</t>
+          <t>consistently</t>
         </is>
       </c>
       <c r="AIV1" s="1" t="inlineStr">
         <is>
-          <t>summary</t>
+          <t>collected</t>
         </is>
       </c>
       <c r="AIW1" s="1" t="inlineStr">
         <is>
-          <t>subdivided</t>
+          <t>coded</t>
         </is>
       </c>
       <c r="AIX1" s="1" t="inlineStr">
         <is>
-          <t>styles</t>
+          <t>association</t>
         </is>
       </c>
       <c r="AIY1" s="1" t="inlineStr">
         <is>
-          <t>settings</t>
+          <t>action</t>
         </is>
       </c>
       <c r="AIZ1" s="1" t="inlineStr">
         <is>
-          <t>serving</t>
-        </is>
-      </c>
-      <c r="AJA1" s="1" t="inlineStr">
-        <is>
-          <t>understand</t>
-        </is>
-      </c>
-      <c r="AJB1" s="1" t="inlineStr">
-        <is>
-          <t>trying</t>
-        </is>
-      </c>
-      <c r="AJC1" s="1" t="inlineStr">
-        <is>
-          <t>self-efficacy</t>
-        </is>
-      </c>
-      <c r="AJD1" s="1" t="inlineStr">
-        <is>
-          <t>studied</t>
-        </is>
-      </c>
-      <c r="AJE1" s="1" t="inlineStr">
-        <is>
-          <t>revolving</t>
-        </is>
-      </c>
-      <c r="AJF1" s="1" t="inlineStr">
-        <is>
-          <t>product</t>
-        </is>
-      </c>
-      <c r="AJG1" s="1" t="inlineStr">
-        <is>
-          <t>setting</t>
-        </is>
-      </c>
-      <c r="AJH1" s="1" t="inlineStr">
-        <is>
-          <t>practical</t>
-        </is>
-      </c>
-      <c r="AJI1" s="1" t="inlineStr">
-        <is>
-          <t>probability</t>
-        </is>
-      </c>
-      <c r="AJJ1" s="1" t="inlineStr">
-        <is>
-          <t>recreate</t>
-        </is>
-      </c>
-      <c r="AJK1" s="1" t="inlineStr">
-        <is>
-          <t>relatively</t>
-        </is>
-      </c>
-      <c r="AJL1" s="1" t="inlineStr">
-        <is>
-          <t>repeatedly</t>
-        </is>
-      </c>
-      <c r="AJM1" s="1" t="inlineStr">
-        <is>
-          <t>longitudinal</t>
-        </is>
-      </c>
-      <c r="AJN1" s="1" t="inlineStr">
-        <is>
-          <t>seemed</t>
-        </is>
-      </c>
-      <c r="AJO1" s="1" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AJP1" s="1" t="inlineStr">
-        <is>
-          <t>combines</t>
-        </is>
-      </c>
-      <c r="AJQ1" s="1" t="inlineStr">
-        <is>
-          <t>conducted</t>
-        </is>
-      </c>
-      <c r="AJR1" s="1" t="inlineStr">
-        <is>
-          <t>door</t>
-        </is>
-      </c>
-      <c r="AJS1" s="1" t="inlineStr">
-        <is>
-          <t>explanation</t>
-        </is>
-      </c>
-      <c r="AJT1" s="1" t="inlineStr">
-        <is>
-          <t>extensive</t>
-        </is>
-      </c>
-      <c r="AJU1" s="1" t="inlineStr">
-        <is>
-          <t>while</t>
-        </is>
-      </c>
-      <c r="AJV1" s="1" t="inlineStr">
-        <is>
-          <t>action</t>
-        </is>
-      </c>
-      <c r="AJW1" s="1" t="inlineStr">
-        <is>
-          <t>association</t>
-        </is>
-      </c>
-      <c r="AJX1" s="1" t="inlineStr">
-        <is>
-          <t>coded</t>
-        </is>
-      </c>
-      <c r="AJY1" s="1" t="inlineStr">
-        <is>
-          <t>consistently</t>
-        </is>
-      </c>
-      <c r="AJZ1" s="1" t="inlineStr">
-        <is>
-          <t>collected</t>
-        </is>
-      </c>
-      <c r="AKA1" s="1" t="inlineStr">
-        <is>
-          <t>examine</t>
-        </is>
-      </c>
-      <c r="AKB1" s="1" t="inlineStr">
-        <is>
-          <t>coping</t>
-        </is>
-      </c>
-      <c r="AKC1" s="1" t="inlineStr">
-        <is>
-          <t>revealed</t>
-        </is>
-      </c>
-      <c r="AKD1" s="1" t="inlineStr">
-        <is>
-          <t>utterance</t>
-        </is>
-      </c>
-      <c r="AKE1" s="1" t="inlineStr">
-        <is>
-          <t>torrance</t>
-        </is>
-      </c>
-      <c r="AKF1" s="1" t="inlineStr">
-        <is>
-          <t>thought</t>
-        </is>
-      </c>
-      <c r="AKG1" s="1" t="inlineStr">
-        <is>
-          <t>tcam</t>
-        </is>
-      </c>
-      <c r="AKH1" s="1" t="inlineStr">
-        <is>
-          <t>t-5</t>
-        </is>
-      </c>
-      <c r="AKI1" s="1" t="inlineStr">
-        <is>
-          <t>t-4</t>
-        </is>
-      </c>
-      <c r="AKJ1" s="1" t="inlineStr">
-        <is>
-          <t>t-2</t>
-        </is>
-      </c>
-      <c r="AKK1" s="1" t="inlineStr">
-        <is>
-          <t>t-1</t>
-        </is>
-      </c>
-      <c r="AKL1" s="1" t="inlineStr">
-        <is>
-          <t>statistical</t>
-        </is>
-      </c>
-      <c r="AKM1" s="1" t="inlineStr">
-        <is>
-          <t>secondary</t>
-        </is>
-      </c>
-      <c r="AKN1" s="1" t="inlineStr">
-        <is>
-          <t>preschool</t>
-        </is>
-      </c>
-      <c r="AKO1" s="1" t="inlineStr">
-        <is>
-          <t>creatively</t>
-        </is>
-      </c>
-      <c r="AKP1" s="1" t="inlineStr">
-        <is>
-          <t>play</t>
-        </is>
-      </c>
-      <c r="AKQ1" s="1" t="inlineStr">
-        <is>
-          <t>nonfacilitative</t>
-        </is>
-      </c>
-      <c r="AKR1" s="1" t="inlineStr">
-        <is>
-          <t>movement</t>
-        </is>
-      </c>
-      <c r="AKS1" s="1" t="inlineStr">
-        <is>
-          <t>measurements</t>
-        </is>
-      </c>
-      <c r="AKT1" s="1" t="inlineStr">
-        <is>
-          <t>linked</t>
-        </is>
-      </c>
-      <c r="AKU1" s="1" t="inlineStr">
-        <is>
-          <t>irrelevant</t>
-        </is>
-      </c>
-      <c r="AKV1" s="1" t="inlineStr">
-        <is>
-          <t>instrument</t>
-        </is>
-      </c>
-      <c r="AKW1" s="1" t="inlineStr">
-        <is>
-          <t>furthermore</t>
-        </is>
-      </c>
-      <c r="AKX1" s="1" t="inlineStr">
-        <is>
           <t>domain</t>
-        </is>
-      </c>
-      <c r="AKY1" s="1" t="inlineStr">
-        <is>
-          <t>demonstrating</t>
-        </is>
-      </c>
-      <c r="AKZ1" s="1" t="inlineStr">
-        <is>
-          <t>t-3</t>
         </is>
       </c>
     </row>
@@ -5379,217 +5119,217 @@
         <v>1994</v>
       </c>
       <c r="C2" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="D2" t="n">
-        <v>1.52</v>
+        <v>1.62</v>
       </c>
       <c r="E2" t="n">
-        <v>1.47</v>
+        <v>1.58</v>
       </c>
       <c r="F2" t="n">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="G2" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="H2" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="I2" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="J2" t="n">
-        <v>1.11</v>
+        <v>1.19</v>
       </c>
       <c r="K2" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="L2" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="M2" t="n">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9400000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="P2" t="n">
-        <v>0.8900000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.8700000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="R2" t="n">
-        <v>0.8500000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="S2" t="n">
-        <v>0.85</v>
+        <v>0.78</v>
       </c>
       <c r="T2" t="n">
-        <v>0.85</v>
+        <v>0.78</v>
       </c>
       <c r="U2" t="n">
-        <v>0.8499999999999999</v>
+        <v>0.77</v>
       </c>
       <c r="V2" t="n">
-        <v>0.8200000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="W2" t="n">
-        <v>0.77</v>
+        <v>0.75</v>
       </c>
       <c r="X2" t="n">
-        <v>0.76</v>
+        <v>0.74</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.75</v>
+        <v>0.72</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.74</v>
+        <v>0.68</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.7200000000000001</v>
+        <v>0.68</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.72</v>
+        <v>0.67</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.72</v>
+        <v>0.67</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.71</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.68</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.67</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.66</v>
+        <v>0.6400000000000001</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.6599999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.64</v>
+        <v>0.59</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.64</v>
+        <v>0.59</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.6200000000000001</v>
+        <v>0.58</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.61</v>
+        <v>0.57</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.61</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.59</v>
+        <v>0.54</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.5599999999999999</v>
+        <v>0.52</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.55</v>
+        <v>0.52</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.55</v>
+        <v>0.52</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.53</v>
+        <v>0.51</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.51</v>
+        <v>0.48</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.51</v>
+        <v>0.48</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.51</v>
+        <v>0.48</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.49</v>
+        <v>0.47</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.49</v>
+        <v>0.46</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.49</v>
+        <v>0.46</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.48</v>
+        <v>0.45</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.48</v>
+        <v>0.45</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.48</v>
+        <v>0.45</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.46</v>
+        <v>0.45</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.46</v>
+        <v>0.45</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.46</v>
+        <v>0.45</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="BV2" t="n">
         <v>0.44</v>
@@ -5610,25 +5350,25 @@
         <v>0.43</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.42</v>
+        <v>0.43</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.42</v>
+        <v>0.43</v>
       </c>
       <c r="CD2" t="n">
         <v>0.42</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
       <c r="CI2" t="n">
         <v>0.41</v>
@@ -5661,7 +5401,7 @@
         <v>0.41</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="CT2" t="n">
         <v>0.4</v>
@@ -5685,22 +5425,22 @@
         <v>0.4</v>
       </c>
       <c r="DA2" t="n">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="DB2" t="n">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="DG2" t="n">
         <v>0.39</v>
@@ -5709,10 +5449,10 @@
         <v>0.39</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="DK2" t="n">
         <v>0.38</v>
@@ -5730,7 +5470,7 @@
         <v>0.38</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="DQ2" t="n">
         <v>0.37</v>
@@ -5739,721 +5479,721 @@
         <v>0.37</v>
       </c>
       <c r="DS2" t="n">
-        <v>0.37</v>
+        <v>0.3699999999999999</v>
       </c>
       <c r="DT2" t="n">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.3699999999999999</v>
+        <v>0.35</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.36</v>
+        <v>0.34</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.36</v>
+        <v>0.34</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.36</v>
+        <v>0.34</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="FG2" t="n">
         <v>0.32</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.32</v>
+        <v>0.3100000000000001</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="FL2" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="FM2" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="FN2" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="FU2" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="FV2" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.3100000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="GC2" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="GD2" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="GE2" t="n">
-        <v>0.31</v>
+        <v>0.28</v>
       </c>
       <c r="GF2" t="n">
-        <v>0.31</v>
+        <v>0.28</v>
       </c>
       <c r="GG2" t="n">
-        <v>0.31</v>
+        <v>0.28</v>
       </c>
       <c r="GH2" t="n">
-        <v>0.31</v>
+        <v>0.28</v>
       </c>
       <c r="GI2" t="n">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="GJ2" t="n">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="GK2" t="n">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="GL2" t="n">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="GM2" t="n">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="GN2" t="n">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="GO2" t="n">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="GP2" t="n">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="GQ2" t="n">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="GR2" t="n">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="GS2" t="n">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="GT2" t="n">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="GU2" t="n">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="GV2" t="n">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="GW2" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="GX2" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="GY2" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="GZ2" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="HA2" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="HB2" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="HC2" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="HD2" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="HE2" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="HF2" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="HG2" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="HH2" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="HI2" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="HJ2" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="HK2" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="HL2" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="HM2" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="HN2" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="HO2" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="HP2" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="HQ2" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="HR2" t="n">
-        <v>0.28</v>
+        <v>0.26</v>
       </c>
       <c r="HS2" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="HT2" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="HU2" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="HV2" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="HW2" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="HX2" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="HY2" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="HZ2" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="IA2" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="IB2" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="IC2" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="ID2" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="IE2" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="IF2" t="n">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="IG2" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="IH2" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="II2" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="IJ2" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="IK2" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="IL2" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="IM2" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="IN2" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="IO2" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="IP2" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="IQ2" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="IR2" t="n">
-        <v>0.26</v>
+        <v>0.24</v>
       </c>
       <c r="IS2" t="n">
-        <v>0.26</v>
+        <v>0.24</v>
       </c>
       <c r="IT2" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="IU2" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="IV2" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="IW2" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="IX2" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="IY2" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="IZ2" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="JA2" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="JB2" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="JC2" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="JD2" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="JE2" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="JF2" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="JG2" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="JH2" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="JI2" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="JJ2" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="JK2" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="JL2" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="JM2" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="JN2" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="JO2" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="JP2" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="JQ2" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="JR2" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="JS2" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="JT2" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="JU2" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="JV2" t="n">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="JW2" t="n">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="JX2" t="n">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="JY2" t="n">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="JZ2" t="n">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="KA2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="KB2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="KC2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="KD2" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="KE2" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="KF2" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="KG2" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="KH2" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="KI2" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="KJ2" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="KK2" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="KL2" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="KM2" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="KN2" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="KO2" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="KP2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="KQ2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="KR2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="KS2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="KT2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="KU2" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="KV2" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="KW2" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="KX2" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="KY2" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="KZ2" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="LA2" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="LB2" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="LC2" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="LD2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="LE2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="LF2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="LG2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="LH2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="LI2" t="n">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="LJ2" t="n">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="LK2" t="n">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="LL2" t="n">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="LM2" t="n">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="LN2" t="n">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="LO2" t="n">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="LP2" t="n">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="LQ2" t="n">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="LR2" t="n">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="LS2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="LT2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="LU2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="LV2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="LW2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="LX2" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="LY2" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="LZ2" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="MA2" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="MB2" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="MC2" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="MD2" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="ME2" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="MF2" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="MG2" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="MH2" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="MI2" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="MJ2" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="MK2" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="ML2" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="MM2" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="MN2" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="MO2" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="MP2" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="MQ2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="MR2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="MS2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="MT2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="MU2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="MV2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="MW2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="MX2" t="n">
         <v>0.18</v>
@@ -6477,202 +6217,202 @@
         <v>0.18</v>
       </c>
       <c r="NE2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="NF2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="NG2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="NH2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="NI2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="NJ2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="NK2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="NL2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="NM2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="NN2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="NO2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="NP2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="NQ2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="NR2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="NS2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="NT2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="NU2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="NV2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="NW2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="NX2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="NY2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="NZ2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="OA2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="OB2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="OC2" t="n">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="OD2" t="n">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="OE2" t="n">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="OF2" t="n">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="OG2" t="n">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="OH2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="OI2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="OJ2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="OK2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="OL2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="OM2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="ON2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="OO2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="OP2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="OQ2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="OR2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="OS2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="OT2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="OU2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="OV2" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="OW2" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="OX2" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="OY2" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="OZ2" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="PA2" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="PB2" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="PC2" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="PD2" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="PE2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="PF2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="PG2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="PH2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="PI2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="PJ2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="PK2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="PL2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="PM2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="PN2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="PO2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="PP2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="PQ2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="PR2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="PS2" t="n">
         <v>0.15</v>
@@ -6696,316 +6436,316 @@
         <v>0.15</v>
       </c>
       <c r="PZ2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="QA2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="QB2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="QC2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="QD2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="QE2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="QF2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="QG2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="QH2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="QI2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="QJ2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="QK2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="QL2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="QM2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="QN2" t="n">
         <v>0.14</v>
       </c>
       <c r="QO2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="QP2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="QQ2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="QR2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="QS2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="QT2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="QU2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="QV2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="QW2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="QX2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="QY2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="QZ2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="RA2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="RB2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="RC2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="RD2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="RE2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="RF2" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="RG2" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="RH2" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="RI2" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="RJ2" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="RK2" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="RL2" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="RM2" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="RN2" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="RO2" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="RP2" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="RQ2" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="RR2" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="RS2" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="RT2" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="RU2" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="RV2" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="RW2" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="RX2" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="RY2" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="RZ2" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="SA2" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="SB2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="SC2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="SD2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="SE2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="SF2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="SG2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="SH2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="SI2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="SJ2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="SK2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="SL2" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="SM2" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="SN2" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="SO2" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="SP2" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="SQ2" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="SR2" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="SS2" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="ST2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="SU2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="SV2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="SW2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="SX2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="SY2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="SZ2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="TA2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="TB2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="TC2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="TD2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="TE2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="TF2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="TG2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="TH2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="TI2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="TJ2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="TK2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="TL2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="TM2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="TN2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="TO2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="TP2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="TQ2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="TR2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="TS2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="TT2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="TU2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="TV2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="TW2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="TX2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="TY2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="TZ2" t="n">
         <v>0.11</v>
@@ -7497,37 +7237,37 @@
         <v>0.11</v>
       </c>
       <c r="AAG2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AAH2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AAI2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AAJ2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AAK2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AAL2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AAM2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AAN2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AAO2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AAP2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AAQ2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AAR2" t="n">
         <v>0.1</v>
@@ -7809,142 +7549,142 @@
         <v>0.1</v>
       </c>
       <c r="AEG2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AEH2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AEI2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AEJ2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AEK2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AEL2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AEM2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AEN2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AEO2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AEP2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AEQ2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AER2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AES2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AET2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AEU2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AEV2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AEW2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AEX2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AEY2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AEZ2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AFA2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AFB2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AFC2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AFD2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AFE2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AFF2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AFG2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AFH2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AFI2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AFJ2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AFK2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AFL2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AFM2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AFN2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AFO2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AFP2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AFQ2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AFR2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AFS2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AFT2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AFU2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AFV2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AFW2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AFX2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AFY2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AFZ2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AGA2" t="n">
         <v>0.09</v>
@@ -8031,43 +7771,43 @@
         <v>0.09</v>
       </c>
       <c r="AHC2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AHD2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AHE2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AHF2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AHG2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AHH2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AHI2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AHJ2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AHK2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AHL2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AHM2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AHN2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AHO2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AHP2" t="n">
         <v>0.08</v>
@@ -8088,252 +7828,96 @@
         <v>0.08</v>
       </c>
       <c r="AHV2" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="AHW2" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="AHX2" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="AHY2" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="AHZ2" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="AIA2" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="AIB2" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="AIC2" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="AID2" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="AIE2" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="AIF2" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="AIG2" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="AIH2" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="AII2" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="AIJ2" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="AIK2" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="AIL2" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="AIM2" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="AIN2" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="AIO2" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="AIP2" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="AIQ2" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="AIR2" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="AIS2" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="AIT2" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="AIU2" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="AIV2" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="AIW2" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="AIX2" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="AIY2" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="AIZ2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AJA2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AJB2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AJC2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AJD2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AJE2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AJF2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AJG2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AJH2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AJI2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AJJ2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AJK2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AJL2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AJM2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AJN2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AJO2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AJP2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AJQ2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AJR2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AJS2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AJT2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AJU2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AJV2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AJW2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AJX2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AJY2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AJZ2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AKA2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AKB2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AKC2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AKD2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AKE2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AKF2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AKG2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AKH2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AKI2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AKJ2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AKK2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AKL2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AKM2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AKN2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AKO2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AKP2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AKQ2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AKR2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AKS2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AKT2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AKU2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AKV2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AKW2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AKX2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AKY2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AKZ2" t="n">
         <v>0.06</v>
       </c>
     </row>
